--- a/Filtered_By_Region/Region X/Region X_QRF.xlsx
+++ b/Filtered_By_Region/Region X/Region X_QRF.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT39"/>
+  <dimension ref="A1:AU39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -729,10 +735,10 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>44597</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>44548</v>
       </c>
       <c r="R2" t="inlineStr">
@@ -745,19 +751,19 @@
           <t>Infra-01-02-2021</t>
         </is>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>44404</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="3" t="n">
         <v>44417</v>
       </c>
       <c r="Y2" t="inlineStr">
@@ -765,7 +771,6 @@
           <t>JAPUZ JANSOL ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
@@ -802,16 +807,11 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -883,10 +883,10 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="3" t="n">
         <v>44644</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="3" t="n">
         <v>44716</v>
       </c>
       <c r="R3" t="inlineStr">
@@ -899,19 +899,19 @@
           <t>Infra-01-03-2021</t>
         </is>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>44404</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="X3" s="3" t="n">
         <v>44417</v>
       </c>
       <c r="Y3" t="inlineStr">
@@ -919,7 +919,6 @@
           <t>JAPUZ JANSOL ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
@@ -956,16 +955,11 @@
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -1009,7 +1003,6 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>2</v>
       </c>
@@ -1035,10 +1028,10 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>44597</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="3" t="n">
         <v>44548</v>
       </c>
       <c r="R4" t="inlineStr">
@@ -1051,19 +1044,19 @@
           <t>Infra-01-02-2021</t>
         </is>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>44404</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="3" t="n">
         <v>44417</v>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1071,7 +1064,6 @@
           <t>Minkonstrak Eng'g. &amp; Gen. Srvcs.</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
@@ -1108,16 +1100,11 @@
       <c r="AL4" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1189,10 +1176,10 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="3" t="n">
         <v>44582</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="3" t="n">
         <v>44618</v>
       </c>
       <c r="R5" t="inlineStr">
@@ -1205,19 +1192,19 @@
           <t>Infra-01-04-2021</t>
         </is>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>44721</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>44404</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="X5" s="3" t="n">
         <v>44417</v>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1225,7 +1212,6 @@
           <t>Minkonstrak Eng'g. &amp; Gen. Srvcs.</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1262,16 +1248,11 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -1315,7 +1296,6 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>10</v>
       </c>
@@ -1341,10 +1321,10 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="3" t="n">
         <v>45168</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="R6" t="inlineStr">
@@ -1357,19 +1337,19 @@
           <t>QRF 2022 - R X - Camiguin -  LOT 2</t>
         </is>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="3" t="n">
         <v>44746</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="3" t="n">
         <v>44755</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="3" t="n">
         <v>44767</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="X6" s="3" t="n">
         <v>44823</v>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1377,7 +1357,6 @@
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
@@ -1414,16 +1393,12 @@
       <c r="AL6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" s="2" t="n">
+      <c r="AM6" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN6" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -1495,10 +1470,10 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="3" t="n">
         <v>45168</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="R7" t="inlineStr">
@@ -1511,19 +1486,19 @@
           <t>QRF 2022 - R X - Camiguin -  LOT 2</t>
         </is>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="3" t="n">
         <v>44746</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="3" t="n">
         <v>44755</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="3" t="n">
         <v>44767</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="X7" s="3" t="n">
         <v>44823</v>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1531,7 +1506,6 @@
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
@@ -1568,16 +1542,12 @@
       <c r="AL7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" s="2" t="n">
+      <c r="AM7" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN7" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1649,10 +1619,10 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="3" t="n">
         <v>45078</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="3" t="n">
         <v>45143</v>
       </c>
       <c r="R8" t="inlineStr">
@@ -1665,19 +1635,19 @@
           <t>QRF 2022 - R X - Camiguin -  LOT 3</t>
         </is>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="3" t="n">
         <v>44746</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="3" t="n">
         <v>44755</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>44767</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="X8" s="3" t="n">
         <v>44823</v>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1685,7 +1655,6 @@
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
@@ -1722,16 +1691,12 @@
       <c r="AL8" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" s="2" t="n">
+      <c r="AM8" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN8" t="n">
         <v>5.23</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1803,10 +1768,10 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="3" t="n">
         <v>45078</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="Q9" s="3" t="n">
         <v>45143</v>
       </c>
       <c r="R9" t="inlineStr">
@@ -1819,19 +1784,19 @@
           <t>QRF 2022 - R X - Camiguin -  LOT 3</t>
         </is>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>44746</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="3" t="n">
         <v>44755</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="3" t="n">
         <v>44767</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X9" s="2" t="n">
+      <c r="X9" s="3" t="n">
         <v>44823</v>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1839,7 +1804,6 @@
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
@@ -1876,16 +1840,12 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" s="2" t="n">
+      <c r="AM9" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN9" t="n">
         <v>5.23</v>
       </c>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1957,10 +1917,10 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="3" t="n">
         <v>45078</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="3" t="n">
         <v>45143</v>
       </c>
       <c r="R10" t="inlineStr">
@@ -1973,19 +1933,19 @@
           <t>QRF 2022 - R X - Camiguin -  LOT 3</t>
         </is>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>44746</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
         <v>44755</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="3" t="n">
         <v>44767</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X10" s="2" t="n">
+      <c r="X10" s="3" t="n">
         <v>44823</v>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1993,7 +1953,6 @@
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
@@ -2030,16 +1989,12 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" s="2" t="n">
+      <c r="AM10" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN10" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -2083,7 +2038,6 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>11</v>
       </c>
@@ -2109,10 +2063,10 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="3" t="n">
         <v>45198</v>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="Q11" s="3" t="n">
         <v>45226</v>
       </c>
       <c r="R11" t="inlineStr">
@@ -2125,19 +2079,19 @@
           <t>QRF 2022 - R X - Camiguin -  LOT 1</t>
         </is>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="3" t="n">
         <v>44746</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" s="3" t="n">
         <v>44755</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="3" t="n">
         <v>44767</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="W11" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X11" s="2" t="n">
+      <c r="X11" s="3" t="n">
         <v>44823</v>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2145,7 +2099,6 @@
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
@@ -2182,16 +2135,12 @@
       <c r="AL11" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" s="2" t="n">
+      <c r="AM11" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN11" t="n">
         <v>11.23</v>
       </c>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -2263,10 +2212,10 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="3" t="n">
         <v>45198</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="Q12" s="3" t="n">
         <v>45226</v>
       </c>
       <c r="R12" t="inlineStr">
@@ -2279,19 +2228,19 @@
           <t>QRF 2022 - R X - Camiguin -  LOT 1</t>
         </is>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>44746</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>44755</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>44767</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X12" s="2" t="n">
+      <c r="X12" s="3" t="n">
         <v>44823</v>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2299,7 +2248,6 @@
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
@@ -2336,16 +2284,12 @@
       <c r="AL12" t="n">
         <v>0</v>
       </c>
-      <c r="AM12" s="2" t="n">
+      <c r="AM12" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN12" t="n">
         <v>11.23</v>
       </c>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2417,10 +2361,9 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="3" t="n">
         <v>45198</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 015</t>
@@ -2431,19 +2374,19 @@
           <t>QRF 2022 - R X - Camiguin -  LOT 4</t>
         </is>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>44746</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>44755</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X13" s="2" t="n">
+      <c r="X13" s="3" t="n">
         <v>44823</v>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2451,7 +2394,6 @@
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
@@ -2488,16 +2430,12 @@
       <c r="AL13" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" s="2" t="n">
+      <c r="AM13" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN13" t="n">
         <v>1.23</v>
       </c>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2541,7 +2479,6 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
         <v>12</v>
       </c>
@@ -2567,10 +2504,9 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>45198</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 002</t>
@@ -2581,19 +2517,19 @@
           <t>QRF 2022 - R X - Camiguin -  LOT 4</t>
         </is>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>44746</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>44755</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>44767</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X14" s="2" t="n">
+      <c r="X14" s="3" t="n">
         <v>44823</v>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2601,7 +2537,6 @@
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
@@ -2638,16 +2573,12 @@
       <c r="AL14" t="n">
         <v>0</v>
       </c>
-      <c r="AM14" s="2" t="n">
+      <c r="AM14" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN14" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -2719,10 +2650,10 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>45123</v>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="Q15" s="3" t="n">
         <v>45103</v>
       </c>
       <c r="R15" t="inlineStr">
@@ -2730,20 +2661,19 @@
           <t>2022-04-0066</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>44680</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>44829</v>
       </c>
-      <c r="X15" s="2" t="n">
+      <c r="X15" s="3" t="n">
         <v>45198</v>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2751,7 +2681,6 @@
           <t>Tri FB Construction &amp; Gen Mdse</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
@@ -2788,16 +2717,12 @@
       <c r="AL15" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" s="2" t="n">
+      <c r="AM15" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN15" t="n">
         <v>10.23</v>
       </c>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -2869,10 +2794,10 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>45003</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="Q16" s="3" t="n">
         <v>45041</v>
       </c>
       <c r="R16" t="inlineStr">
@@ -2880,20 +2805,19 @@
           <t>2022-04-0067</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>44680</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="3" t="n">
         <v>44829</v>
       </c>
-      <c r="X16" s="2" t="n">
+      <c r="X16" s="3" t="n">
         <v>45198</v>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2901,7 +2825,6 @@
           <t>AbrahamBM Construction</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
@@ -2938,16 +2861,12 @@
       <c r="AL16" t="n">
         <v>0</v>
       </c>
-      <c r="AM16" s="2" t="n">
+      <c r="AM16" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN16" t="n">
         <v>2.23</v>
       </c>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2991,7 +2910,6 @@
       <c r="G17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>2</v>
       </c>
@@ -3017,10 +2935,10 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>45123</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="Q17" s="3" t="n">
         <v>44960</v>
       </c>
       <c r="R17" t="inlineStr">
@@ -3028,20 +2946,19 @@
           <t>2022-04-0069</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>44680</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="W17" s="3" t="n">
         <v>44829</v>
       </c>
-      <c r="X17" s="2" t="n">
+      <c r="X17" s="3" t="n">
         <v>45198</v>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3049,7 +2966,6 @@
           <t>AbrahamBM Construction</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
@@ -3086,16 +3002,12 @@
       <c r="AL17" t="n">
         <v>0</v>
       </c>
-      <c r="AM17" s="2" t="n">
+      <c r="AM17" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN17" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -3167,10 +3079,10 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>45003</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="Q18" s="3" t="n">
         <v>45103</v>
       </c>
       <c r="R18" t="inlineStr">
@@ -3178,20 +3090,19 @@
           <t>2022-04-0068</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>44680</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>44692</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>44704</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>44829</v>
       </c>
-      <c r="X18" s="2" t="n">
+      <c r="X18" s="3" t="n">
         <v>45198</v>
       </c>
       <c r="Y18" t="inlineStr">
@@ -3199,7 +3110,6 @@
           <t>AbrahamBM Construction</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
@@ -3236,16 +3146,12 @@
       <c r="AL18" t="n">
         <v>0</v>
       </c>
-      <c r="AM18" s="2" t="n">
+      <c r="AM18" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN18" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -3306,7 +3212,6 @@
       <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3315,10 +3220,9 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 004</t>
@@ -3329,19 +3233,19 @@
           <t>QRF 2022 - R X - Camiguin -  LOT 2</t>
         </is>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="3" t="n">
         <v>44746</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="3" t="n">
         <v>44755</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>44767</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X19" s="2" t="n">
+      <c r="X19" s="3" t="n">
         <v>44823</v>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3349,7 +3253,6 @@
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
@@ -3386,16 +3289,12 @@
       <c r="AL19" t="n">
         <v>0</v>
       </c>
-      <c r="AM19" s="2" t="n">
+      <c r="AM19" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN19" t="n">
         <v>10.23</v>
       </c>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3456,7 +3355,6 @@
       <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3465,10 +3363,9 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>44924</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 043</t>
@@ -3479,19 +3376,19 @@
           <t>QRF 2022 - R X - Camiguin -  LOT 2</t>
         </is>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>44746</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>44755</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>44767</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>44781</v>
       </c>
-      <c r="X20" s="2" t="n">
+      <c r="X20" s="3" t="n">
         <v>44823</v>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3499,7 +3396,6 @@
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
@@ -3536,7 +3432,7 @@
       <c r="AL20" t="n">
         <v>0</v>
       </c>
-      <c r="AM20" s="2" t="n">
+      <c r="AM20" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="AN20" t="inlineStr">
@@ -3544,10 +3440,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3621,10 +3513,9 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>45208</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 010</t>
@@ -3635,19 +3526,19 @@
           <t>QRF 2022 BATCH 2</t>
         </is>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="3" t="n">
         <v>44999</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>44991</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="W21" s="3" t="n">
         <v>45012</v>
       </c>
-      <c r="X21" s="2" t="n">
+      <c r="X21" s="3" t="n">
         <v>45054</v>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3655,7 +3546,6 @@
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
@@ -3692,14 +3582,9 @@
       <c r="AL21" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="n">
         <v>12.23</v>
       </c>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -3773,10 +3658,10 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>45305</v>
       </c>
-      <c r="Q22" s="2" t="n">
+      <c r="Q22" s="3" t="n">
         <v>45322</v>
       </c>
       <c r="R22" t="inlineStr">
@@ -3789,19 +3674,19 @@
           <t>010-2023</t>
         </is>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
         <v>45148</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="3" t="n">
         <v>45163</v>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="W22" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="X22" s="2" t="n">
+      <c r="X22" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3850,7 +3735,6 @@
       <c r="AL22" t="n">
         <v>0</v>
       </c>
-      <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="n">
         <v>5.24</v>
       </c>
@@ -3859,9 +3743,6 @@
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3935,10 +3816,10 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="3" t="n">
         <v>45402</v>
       </c>
-      <c r="Q23" s="2" t="n">
+      <c r="Q23" s="3" t="n">
         <v>45322</v>
       </c>
       <c r="R23" t="inlineStr">
@@ -3951,19 +3832,19 @@
           <t>010-2023</t>
         </is>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>45148</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>45163</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="X23" s="2" t="n">
+      <c r="X23" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="Y23" t="inlineStr">
@@ -4012,7 +3893,6 @@
       <c r="AL23" t="n">
         <v>0</v>
       </c>
-      <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="n">
         <v>5.24</v>
       </c>
@@ -4021,9 +3901,6 @@
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4097,10 +3974,9 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>45305</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
           <t>QRF 2023</t>
@@ -4111,19 +3987,19 @@
           <t>011-2023</t>
         </is>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>45148</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>45163</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="X24" s="2" t="n">
+      <c r="X24" s="3" t="n">
         <v>45216</v>
       </c>
       <c r="Y24" t="inlineStr">
@@ -4172,7 +4048,6 @@
       <c r="AL24" t="n">
         <v>0</v>
       </c>
-      <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="n">
         <v>11.24</v>
       </c>
@@ -4181,9 +4056,6 @@
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -4257,10 +4129,10 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>45305</v>
       </c>
-      <c r="Q25" s="2" t="n">
+      <c r="Q25" s="3" t="n">
         <v>45322</v>
       </c>
       <c r="R25" t="inlineStr">
@@ -4273,19 +4145,19 @@
           <t>010-2023</t>
         </is>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
         <v>45148</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="3" t="n">
         <v>45163</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="W25" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="X25" s="2" t="n">
+      <c r="X25" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="Y25" t="inlineStr">
@@ -4334,7 +4206,6 @@
       <c r="AL25" t="n">
         <v>0</v>
       </c>
-      <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="n">
         <v>5.24</v>
       </c>
@@ -4343,9 +4214,6 @@
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4419,10 +4287,10 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" s="2" t="n">
+      <c r="P26" s="3" t="n">
         <v>45369</v>
       </c>
-      <c r="Q26" s="2" t="n">
+      <c r="Q26" s="3" t="n">
         <v>45380</v>
       </c>
       <c r="R26" t="inlineStr">
@@ -4435,19 +4303,19 @@
           <t>021-2023</t>
         </is>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="3" t="n">
         <v>45178</v>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="U26" s="3" t="n">
         <v>45148</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="3" t="n">
         <v>45163</v>
       </c>
-      <c r="W26" s="2" t="n">
+      <c r="W26" s="3" t="n">
         <v>45211</v>
       </c>
-      <c r="X26" s="2" t="n">
+      <c r="X26" s="3" t="n">
         <v>45273</v>
       </c>
       <c r="Y26" t="inlineStr">
@@ -4496,7 +4364,6 @@
       <c r="AL26" t="n">
         <v>0</v>
       </c>
-      <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="n">
         <v>7.24</v>
       </c>
@@ -4505,9 +4372,6 @@
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4581,10 +4445,9 @@
       <c r="O27" t="n">
         <v>0.8</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="3" t="n">
         <v>45383</v>
       </c>
-      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
           <t>QRF 2023</t>
@@ -4595,19 +4458,19 @@
           <t>013-2023</t>
         </is>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="U27" s="3" t="n">
         <v>45148</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="3" t="n">
         <v>45163</v>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="W27" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="X27" s="2" t="n">
+      <c r="X27" s="3" t="n">
         <v>45216</v>
       </c>
       <c r="Y27" t="inlineStr">
@@ -4656,16 +4519,11 @@
       <c r="AL27" t="n">
         <v>0.07000000000000006</v>
       </c>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr">
         <is>
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -4739,10 +4597,9 @@
       <c r="O28" t="n">
         <v>0.85</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="3" t="n">
         <v>45375</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
           <t>QRF 2023</t>
@@ -4753,19 +4610,19 @@
           <t>014-2023</t>
         </is>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>45148</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>45163</v>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="W28" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="X28" s="2" t="n">
+      <c r="X28" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="Y28" t="inlineStr">
@@ -4814,16 +4671,11 @@
       <c r="AL28" t="n">
         <v>0.09999999999999998</v>
       </c>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr">
         <is>
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -4897,10 +4749,10 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" s="2" t="n">
+      <c r="P29" s="3" t="n">
         <v>45369</v>
       </c>
-      <c r="Q29" s="2" t="n">
+      <c r="Q29" s="3" t="n">
         <v>45377</v>
       </c>
       <c r="R29" t="inlineStr">
@@ -4913,16 +4765,16 @@
           <t>022-2023</t>
         </is>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="T29" s="3" t="n">
         <v>45178</v>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="U29" s="3" t="n">
         <v>45148</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="3" t="n">
         <v>45163</v>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="W29" s="3" t="n">
         <v>45211</v>
       </c>
       <c r="X29" t="inlineStr">
@@ -4976,7 +4828,6 @@
       <c r="AL29" t="n">
         <v>0</v>
       </c>
-      <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="n">
         <v>5.24</v>
       </c>
@@ -4985,9 +4836,6 @@
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5061,10 +4909,9 @@
       <c r="O30" t="n">
         <v>0.83</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="3" t="n">
         <v>45403</v>
       </c>
-      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
           <t>QRF 2023</t>
@@ -5075,19 +4922,19 @@
           <t>015-2023</t>
         </is>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>45148</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="3" t="n">
         <v>45163</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="W30" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="X30" s="2" t="n">
+      <c r="X30" s="3" t="n">
         <v>45216</v>
       </c>
       <c r="Y30" t="inlineStr">
@@ -5136,16 +4983,11 @@
       <c r="AL30" t="n">
         <v>0.01000000000000001</v>
       </c>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr">
         <is>
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -5219,10 +5061,10 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" s="2" t="n">
+      <c r="P31" s="3" t="n">
         <v>45305</v>
       </c>
-      <c r="Q31" s="2" t="n">
+      <c r="Q31" s="3" t="n">
         <v>45322</v>
       </c>
       <c r="R31" t="inlineStr">
@@ -5235,19 +5077,19 @@
           <t>018-2023</t>
         </is>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>45148</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="3" t="n">
         <v>45163</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="X31" s="2" t="n">
+      <c r="X31" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="Y31" t="inlineStr">
@@ -5296,7 +5138,6 @@
       <c r="AL31" t="n">
         <v>0</v>
       </c>
-      <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="n">
         <v>5.24</v>
       </c>
@@ -5305,9 +5146,6 @@
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5381,10 +5219,10 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="3" t="n">
         <v>45305</v>
       </c>
-      <c r="Q32" s="2" t="n">
+      <c r="Q32" s="3" t="n">
         <v>45322</v>
       </c>
       <c r="R32" t="inlineStr">
@@ -5397,19 +5235,19 @@
           <t>018-2023</t>
         </is>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>45148</v>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="V32" s="3" t="n">
         <v>45163</v>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="W32" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="X32" s="2" t="n">
+      <c r="X32" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="Y32" t="inlineStr">
@@ -5458,7 +5296,6 @@
       <c r="AL32" t="n">
         <v>0</v>
       </c>
-      <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="n">
         <v>5.24</v>
       </c>
@@ -5467,9 +5304,6 @@
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5548,7 +5382,6 @@
           <t>September 30, 2024</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
           <t>QRF 2023</t>
@@ -5630,7 +5463,6 @@
       <c r="AL33" t="n">
         <v>0</v>
       </c>
-      <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="n">
         <v>1.25</v>
       </c>
@@ -5639,9 +5471,6 @@
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -5806,7 +5635,6 @@
       <c r="AL34" t="n">
         <v>0</v>
       </c>
-      <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="n">
         <v>3.24</v>
       </c>
@@ -5815,9 +5643,6 @@
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5896,26 +5721,24 @@
           <t>17‎ ‎July‎ ‎2024</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
           <t>INFRA-2023-DEPEDOROQ-1</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" s="2" t="n">
+      <c r="T35" s="3" t="n">
         <v>45043</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="U35" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="3" t="n">
         <v>45068</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="W35" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="X35" s="2" t="n">
+      <c r="X35" s="3" t="n">
         <v>45121</v>
       </c>
       <c r="Y35" t="inlineStr">
@@ -5964,7 +5787,6 @@
       <c r="AL35" t="n">
         <v>0</v>
       </c>
-      <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="n">
         <v>11.24</v>
       </c>
@@ -5973,9 +5795,6 @@
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -6054,26 +5873,24 @@
           <t xml:space="preserve"> ‎29‎ ‎December‎ ‎2023</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
           <t>INFRA-2023-DEPEDOROQ-3</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" s="2" t="n">
+      <c r="T36" s="3" t="n">
         <v>45043</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="U36" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="V36" s="3" t="n">
         <v>45069</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="W36" s="3" t="n">
         <v>45103</v>
       </c>
-      <c r="X36" s="2" t="n">
+      <c r="X36" s="3" t="n">
         <v>45124</v>
       </c>
       <c r="Y36" t="inlineStr">
@@ -6122,7 +5939,6 @@
       <c r="AL36" t="n">
         <v>0</v>
       </c>
-      <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="n">
         <v>3.24</v>
       </c>
@@ -6131,9 +5947,6 @@
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -6212,26 +6025,24 @@
           <t xml:space="preserve"> ‎13‎ ‎January‎ ‎2024</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
           <t>INFRA-2023-DEPEDOROQ-2</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="3" t="n">
         <v>45043</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="3" t="n">
         <v>45068</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="W37" s="3" t="n">
         <v>45103</v>
       </c>
-      <c r="X37" s="2" t="n">
+      <c r="X37" s="3" t="n">
         <v>45124</v>
       </c>
       <c r="Y37" t="inlineStr">
@@ -6280,7 +6091,6 @@
       <c r="AL37" t="n">
         <v>0</v>
       </c>
-      <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="n">
         <v>8.24</v>
       </c>
@@ -6289,9 +6099,6 @@
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -6337,7 +6144,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
         <v>3</v>
       </c>
@@ -6368,26 +6174,24 @@
           <t>‎14‎ ‎December‎ ‎2023</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
           <t>INFRA-2023-DEPEDOROQ-4</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" s="2" t="n">
+      <c r="T38" s="3" t="n">
         <v>45043</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="U38" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="3" t="n">
         <v>45069</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="W38" s="3" t="n">
         <v>45103</v>
       </c>
-      <c r="X38" s="2" t="n">
+      <c r="X38" s="3" t="n">
         <v>45124</v>
       </c>
       <c r="Y38" t="inlineStr">
@@ -6436,7 +6240,6 @@
       <c r="AL38" t="n">
         <v>0</v>
       </c>
-      <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="n">
         <v>8.24</v>
       </c>
@@ -6445,9 +6248,6 @@
           <t>SHEARLINE &amp; LPA</t>
         </is>
       </c>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6512,7 +6312,6 @@
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -6521,17 +6320,6 @@
       <c r="O39" t="n">
         <v>0.5</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
@@ -6568,16 +6356,11 @@
       <c r="AL39" t="n">
         <v>0</v>
       </c>
-      <c r="AM39" t="inlineStr"/>
-      <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr">
         <is>
           <t>EARTHQUAKE (Hinatuan)</t>
         </is>
       </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -6586,6 +6369,79 @@
       <c r="AT39" t="inlineStr">
         <is>
           <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU39" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region X/Region X_QRF.xlsx
+++ b/Filtered_By_Region/Region X/Region X_QRF.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,15 +64,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,3949 +447,3979 @@
   <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="43" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="64" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="33" customWidth="1" min="18" max="18"/>
+    <col width="36" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="35" customWidth="1" min="25" max="25"/>
+    <col width="120" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AA1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>303994</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Mambajao NHS</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>MAMBAJAO (Capital)</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>DAMAGED CLASSROOMS DUE TO TREES TOPPLED OVER IT (STRONG WINDS)</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>1473234.144102</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="n">
+      <c r="L2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="n">
         <v>1462809.68</v>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5" t="n">
+      <c r="O2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6" t="n">
         <v>44597</v>
       </c>
-      <c r="Q2" s="5" t="n">
+      <c r="Q2" s="6" t="n">
         <v>44548</v>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>QRF 2021 - R X - Camiguin - 003</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>Infra-01-02-2021</t>
         </is>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="6" t="n">
         <v>44348</v>
       </c>
-      <c r="U2" s="5" t="n">
+      <c r="U2" s="6" t="n">
         <v>44721</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="6" t="n">
         <v>44368</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="X2" s="5" t="n">
+      <c r="X2" s="6" t="n">
         <v>44417</v>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>JAPUZ JANSOL ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr"/>
-      <c r="AA2" s="4" t="n"/>
+      <c r="Z2" s="5" t="inlineStr"/>
+      <c r="AA2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>126921</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Tupsan ES</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>MAMBAJAO (Capital)</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>FIRE INCIDENT</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>1971512.26935075</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="n">
+      <c r="L3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="n">
         <v>1960536.73</v>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="5" t="n">
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6" t="n">
         <v>44644</v>
       </c>
-      <c r="Q3" s="5" t="n">
+      <c r="Q3" s="6" t="n">
         <v>44716</v>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>QRF 2021 - R X - Camiguin - 002</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>Infra-01-03-2021</t>
         </is>
       </c>
-      <c r="T3" s="5" t="n">
+      <c r="T3" s="6" t="n">
         <v>44348</v>
       </c>
-      <c r="U3" s="5" t="n">
+      <c r="U3" s="6" t="n">
         <v>44721</v>
       </c>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="6" t="n">
         <v>44368</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="6" t="n">
         <v>44417</v>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>JAPUZ JANSOL ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr"/>
-      <c r="AA3" s="4" t="n"/>
+      <c r="Z3" s="5" t="inlineStr"/>
+      <c r="AA3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>126921</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Tupsan ES</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>MAMBAJAO (Capital)</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>DAMAGED CLASSROOMS DUE TO TREES TOPPLED OVER IT (STRONG WINDS)</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>4758089.789206878</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="n">
+      <c r="L4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="n">
         <v>1960536.73</v>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="5" t="n">
+      <c r="O4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6" t="n">
         <v>44597</v>
       </c>
-      <c r="Q4" s="5" t="n">
+      <c r="Q4" s="6" t="n">
         <v>44548</v>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>QRF 2021 - R X - Camiguin - 004</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>Infra-01-02-2021</t>
         </is>
       </c>
-      <c r="T4" s="5" t="n">
+      <c r="T4" s="6" t="n">
         <v>44348</v>
       </c>
-      <c r="U4" s="5" t="n">
+      <c r="U4" s="6" t="n">
         <v>44721</v>
       </c>
-      <c r="V4" s="5" t="n">
+      <c r="V4" s="6" t="n">
         <v>44368</v>
       </c>
-      <c r="W4" s="5" t="n">
+      <c r="W4" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="X4" s="5" t="n">
+      <c r="X4" s="6" t="n">
         <v>44417</v>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>Minkonstrak Eng'g. &amp; Gen. Srvcs.</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr"/>
-      <c r="AA4" s="4" t="n"/>
+      <c r="Z4" s="5" t="inlineStr"/>
+      <c r="AA4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>126936</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Subocan ES</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>SAGAY</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>DAMAGED CLASSROOMS DUE TO TREES TOPPLED OVER IT (STRONG WINDS)</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>4849009.289206878</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4" t="n">
+      <c r="L5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="n">
         <v>4838031.27</v>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5" t="n">
+      <c r="O5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6" t="n">
         <v>44582</v>
       </c>
-      <c r="Q5" s="5" t="n">
+      <c r="Q5" s="6" t="n">
         <v>44618</v>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>QRF 2021 - R X - Camiguin - 001</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>Infra-01-04-2021</t>
         </is>
       </c>
-      <c r="T5" s="5" t="n">
+      <c r="T5" s="6" t="n">
         <v>44348</v>
       </c>
-      <c r="U5" s="5" t="n">
+      <c r="U5" s="6" t="n">
         <v>44721</v>
       </c>
-      <c r="V5" s="5" t="n">
+      <c r="V5" s="6" t="n">
         <v>44368</v>
       </c>
-      <c r="W5" s="5" t="n">
+      <c r="W5" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="X5" s="5" t="n">
+      <c r="X5" s="6" t="n">
         <v>44417</v>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>Minkonstrak Eng'g. &amp; Gen. Srvcs.</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr"/>
-      <c r="AA5" s="4" t="n"/>
+      <c r="Z5" s="5" t="inlineStr"/>
+      <c r="AA5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>126885</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Catarman CS</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>CATARMAN</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="n">
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>NEW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>19869482.89</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4" t="n">
+      <c r="L6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="n">
         <v>19866688.44</v>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5" t="n">
+      <c r="O6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6" t="n">
         <v>45168</v>
       </c>
-      <c r="Q6" s="5" t="n">
+      <c r="Q6" s="6" t="n">
         <v>45156</v>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 004</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 2</t>
         </is>
       </c>
-      <c r="T6" s="5" t="n">
+      <c r="T6" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U6" s="5" t="n">
+      <c r="U6" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V6" s="5" t="n">
+      <c r="V6" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X6" s="5" t="n">
+      <c r="X6" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr"/>
-      <c r="AA6" s="4" t="n"/>
+      <c r="Z6" s="5" t="inlineStr"/>
+      <c r="AA6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>126885</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Catarman CS</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>CATARMAN</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>150000</v>
       </c>
-      <c r="L7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="n">
+      <c r="L7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5" t="n">
         <v>149472.02</v>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5" t="n">
+      <c r="O7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6" t="n">
         <v>45168</v>
       </c>
-      <c r="Q7" s="5" t="n">
+      <c r="Q7" s="6" t="n">
         <v>45156</v>
       </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 043</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 2</t>
         </is>
       </c>
-      <c r="T7" s="5" t="n">
+      <c r="T7" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U7" s="5" t="n">
+      <c r="U7" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V7" s="5" t="n">
+      <c r="V7" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="X7" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr"/>
-      <c r="AA7" s="4" t="n"/>
+      <c r="Z7" s="5" t="inlineStr"/>
+      <c r="AA7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>126928</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>BUTAY ES</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>GUINSILIBAN</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>300000</v>
       </c>
-      <c r="L8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4" t="n">
+      <c r="L8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="n">
         <v>296463.41</v>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5" t="n">
+      <c r="O8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6" t="n">
         <v>45078</v>
       </c>
-      <c r="Q8" s="5" t="n">
+      <c r="Q8" s="6" t="n">
         <v>45143</v>
       </c>
-      <c r="R8" s="4" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 033</t>
         </is>
       </c>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 3</t>
         </is>
       </c>
-      <c r="T8" s="5" t="n">
+      <c r="T8" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U8" s="5" t="n">
+      <c r="U8" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V8" s="5" t="n">
+      <c r="V8" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W8" s="5" t="n">
+      <c r="W8" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X8" s="5" t="n">
+      <c r="X8" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr"/>
-      <c r="AA8" s="4" t="n"/>
+      <c r="Z8" s="5" t="inlineStr"/>
+      <c r="AA8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>126931</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Guinsiliban CS</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>GUINSILIBAN</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>800000</v>
       </c>
-      <c r="L9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4" t="n">
+      <c r="L9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="n">
         <v>798629.5699999999</v>
       </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5" t="n">
+      <c r="O9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6" t="n">
         <v>45078</v>
       </c>
-      <c r="Q9" s="5" t="n">
+      <c r="Q9" s="6" t="n">
         <v>45143</v>
       </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="R9" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 031</t>
         </is>
       </c>
-      <c r="S9" s="4" t="inlineStr">
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 3</t>
         </is>
       </c>
-      <c r="T9" s="5" t="n">
+      <c r="T9" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U9" s="5" t="n">
+      <c r="U9" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V9" s="5" t="n">
+      <c r="V9" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W9" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X9" s="5" t="n">
+      <c r="X9" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="inlineStr"/>
-      <c r="AA9" s="4" t="n"/>
+      <c r="Z9" s="5" t="inlineStr"/>
+      <c r="AA9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>126933</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Maac Elementary School</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>GUINSILIBAN</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>NEW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>12667615.79</v>
       </c>
-      <c r="L10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4" t="n">
+      <c r="L10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="n">
         <v>12662340.68</v>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5" t="n">
+      <c r="O10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6" t="n">
         <v>45078</v>
       </c>
-      <c r="Q10" s="5" t="n">
+      <c r="Q10" s="6" t="n">
         <v>45143</v>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 005</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 3</t>
         </is>
       </c>
-      <c r="T10" s="5" t="n">
+      <c r="T10" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U10" s="5" t="n">
+      <c r="U10" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V10" s="5" t="n">
+      <c r="V10" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W10" s="5" t="n">
+      <c r="W10" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X10" s="5" t="n">
+      <c r="X10" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="inlineStr"/>
-      <c r="AA10" s="4" t="n"/>
+      <c r="Z10" s="5" t="inlineStr"/>
+      <c r="AA10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>126914</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Mambajao CS</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>MAMBAJAO (Capital)</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="4" t="inlineStr"/>
-      <c r="I11" s="4" t="n">
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>NEW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>22536171.13</v>
       </c>
-      <c r="L11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4" t="n">
+      <c r="L11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5" t="n">
         <v>22525933.1</v>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="5" t="n">
+      <c r="O11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Q11" s="5" t="n">
+      <c r="Q11" s="6" t="n">
         <v>45226</v>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="R11" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 003</t>
         </is>
       </c>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 1</t>
         </is>
       </c>
-      <c r="T11" s="5" t="n">
+      <c r="T11" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U11" s="5" t="n">
+      <c r="U11" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V11" s="5" t="n">
+      <c r="V11" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W11" s="5" t="n">
+      <c r="W11" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X11" s="5" t="n">
+      <c r="X11" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="inlineStr"/>
-      <c r="AA11" s="4" t="n"/>
+      <c r="Z11" s="5" t="inlineStr"/>
+      <c r="AA11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>126914</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Mambajao CS</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>MAMBAJAO (Capital)</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>650981.29</v>
       </c>
-      <c r="L12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4" t="n">
+      <c r="L12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="n">
         <v>644855.12</v>
       </c>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5" t="n">
+      <c r="O12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Q12" s="5" t="n">
+      <c r="Q12" s="6" t="n">
         <v>45226</v>
       </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 021</t>
         </is>
       </c>
-      <c r="S12" s="4" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 1</t>
         </is>
       </c>
-      <c r="T12" s="5" t="n">
+      <c r="T12" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U12" s="5" t="n">
+      <c r="U12" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V12" s="5" t="n">
+      <c r="V12" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W12" s="5" t="n">
+      <c r="W12" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X12" s="5" t="n">
+      <c r="X12" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="inlineStr"/>
-      <c r="AA12" s="4" t="n"/>
+      <c r="Z12" s="5" t="inlineStr"/>
+      <c r="AA12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>126935</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Sagay Central School</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>SAGAY</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>1866506.75</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4" t="n">
+      <c r="L13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="n">
         <v>1860652.7</v>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="5" t="n">
+      <c r="O13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Q13" s="4" t="inlineStr"/>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 015</t>
         </is>
       </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 4</t>
         </is>
       </c>
-      <c r="T13" s="5" t="n">
+      <c r="T13" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U13" s="5" t="n">
+      <c r="U13" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V13" s="5" t="n">
+      <c r="V13" s="6" t="n">
         <v>44372</v>
       </c>
-      <c r="W13" s="5" t="n">
+      <c r="W13" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X13" s="5" t="n">
+      <c r="X13" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="inlineStr"/>
-      <c r="AA13" s="4" t="n"/>
+      <c r="Z13" s="5" t="inlineStr"/>
+      <c r="AA13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>126935</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Sagay Central School</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>SAGAY</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="4" t="inlineStr"/>
-      <c r="I14" s="4" t="n">
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>NEW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>24369730.96</v>
       </c>
-      <c r="L14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4" t="n">
+      <c r="L14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5" t="n">
         <v>24363319.78</v>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="5" t="n">
+      <c r="O14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Q14" s="4" t="inlineStr"/>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 002</t>
         </is>
       </c>
-      <c r="S14" s="4" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 4</t>
         </is>
       </c>
-      <c r="T14" s="5" t="n">
+      <c r="T14" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U14" s="5" t="n">
+      <c r="U14" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V14" s="5" t="n">
+      <c r="V14" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W14" s="5" t="n">
+      <c r="W14" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X14" s="5" t="n">
+      <c r="X14" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z14" s="4" t="inlineStr"/>
-      <c r="AA14" s="4" t="n"/>
+      <c r="Z14" s="5" t="inlineStr"/>
+      <c r="AA14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>127670</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Cogon ES</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>CITY OF EL SALVADOR</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>NEW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>5858817.72</v>
       </c>
-      <c r="L15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4" t="n">
+      <c r="L15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5" t="n">
         <v>4624522.96</v>
       </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="5" t="n">
+      <c r="O15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6" t="n">
         <v>45123</v>
       </c>
-      <c r="Q15" s="5" t="n">
+      <c r="Q15" s="6" t="n">
         <v>45103</v>
       </c>
-      <c r="R15" s="4" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>2022-04-0066</t>
         </is>
       </c>
-      <c r="S15" s="4" t="inlineStr"/>
-      <c r="T15" s="5" t="n">
+      <c r="S15" s="5" t="inlineStr"/>
+      <c r="T15" s="6" t="n">
         <v>44680</v>
       </c>
-      <c r="U15" s="5" t="n">
+      <c r="U15" s="6" t="n">
         <v>44692</v>
       </c>
-      <c r="V15" s="5" t="n">
+      <c r="V15" s="6" t="n">
         <v>44704</v>
       </c>
-      <c r="W15" s="5" t="n">
+      <c r="W15" s="6" t="n">
         <v>44829</v>
       </c>
-      <c r="X15" s="5" t="n">
+      <c r="X15" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>Tri FB Construction &amp; Gen Mdse</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="inlineStr"/>
-      <c r="AA15" s="4" t="n"/>
+      <c r="Z15" s="5" t="inlineStr"/>
+      <c r="AA15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>127677</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Pedro Sa. Baculio ES (Bolobolo)</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>CITY OF EL SALVADOR</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>1301701.99</v>
       </c>
-      <c r="L16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4" t="n">
+      <c r="L16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="n">
         <v>1105506.66</v>
       </c>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="5" t="n">
+      <c r="O16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6" t="n">
         <v>45003</v>
       </c>
-      <c r="Q16" s="5" t="n">
+      <c r="Q16" s="6" t="n">
         <v>45041</v>
       </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>2022-04-0067</t>
         </is>
       </c>
-      <c r="S16" s="4" t="inlineStr"/>
-      <c r="T16" s="5" t="n">
+      <c r="S16" s="5" t="inlineStr"/>
+      <c r="T16" s="6" t="n">
         <v>44680</v>
       </c>
-      <c r="U16" s="5" t="n">
+      <c r="U16" s="6" t="n">
         <v>44692</v>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="6" t="n">
         <v>44704</v>
       </c>
-      <c r="W16" s="5" t="n">
+      <c r="W16" s="6" t="n">
         <v>44829</v>
       </c>
-      <c r="X16" s="5" t="n">
+      <c r="X16" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>AbrahamBM Construction</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="inlineStr"/>
-      <c r="AA16" s="4" t="n"/>
+      <c r="Z16" s="5" t="inlineStr"/>
+      <c r="AA16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>127677</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Pedro Sa. Baculio ES (Bolobolo)</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>CITY OF EL SALVADOR</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="4" t="inlineStr"/>
-      <c r="I17" s="4" t="n">
+      <c r="H17" s="5" t="inlineStr"/>
+      <c r="I17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>NEW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>6509328.44</v>
       </c>
-      <c r="L17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4" t="n">
+      <c r="L17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5" t="n">
         <v>5313487.54</v>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="5" t="n">
+      <c r="O17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6" t="n">
         <v>45123</v>
       </c>
-      <c r="Q17" s="5" t="n">
+      <c r="Q17" s="6" t="n">
         <v>44960</v>
       </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>2022-04-0069</t>
         </is>
       </c>
-      <c r="S17" s="4" t="inlineStr"/>
-      <c r="T17" s="5" t="n">
+      <c r="S17" s="5" t="inlineStr"/>
+      <c r="T17" s="6" t="n">
         <v>44680</v>
       </c>
-      <c r="U17" s="5" t="n">
+      <c r="U17" s="6" t="n">
         <v>44692</v>
       </c>
-      <c r="V17" s="5" t="n">
+      <c r="V17" s="6" t="n">
         <v>44704</v>
       </c>
-      <c r="W17" s="5" t="n">
+      <c r="W17" s="6" t="n">
         <v>44829</v>
       </c>
-      <c r="X17" s="5" t="n">
+      <c r="X17" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>AbrahamBM Construction</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="inlineStr"/>
-      <c r="AA17" s="4" t="n"/>
+      <c r="Z17" s="5" t="inlineStr"/>
+      <c r="AA17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>127678</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Sambulawan Elementary School</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>CITY OF EL SALVADOR</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>NEW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>6836370.06</v>
       </c>
-      <c r="L18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4" t="n">
+      <c r="L18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5" t="n">
         <v>6270286.1</v>
       </c>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="5" t="n">
+      <c r="O18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6" t="n">
         <v>45003</v>
       </c>
-      <c r="Q18" s="5" t="n">
+      <c r="Q18" s="6" t="n">
         <v>45103</v>
       </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>2022-04-0068</t>
         </is>
       </c>
-      <c r="S18" s="4" t="inlineStr"/>
-      <c r="T18" s="5" t="n">
+      <c r="S18" s="5" t="inlineStr"/>
+      <c r="T18" s="6" t="n">
         <v>44680</v>
       </c>
-      <c r="U18" s="5" t="n">
+      <c r="U18" s="6" t="n">
         <v>44692</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="6" t="n">
         <v>44704</v>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="6" t="n">
         <v>44829</v>
       </c>
-      <c r="X18" s="5" t="n">
+      <c r="X18" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>AbrahamBM Construction</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="inlineStr"/>
-      <c r="AA18" s="4" t="n"/>
+      <c r="Z18" s="5" t="inlineStr"/>
+      <c r="AA18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Gingoog City</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>501023</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Civoleg Integrated School - Elem</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>GINGOOG CITY</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="G19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>1500000</v>
       </c>
-      <c r="L19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4" t="inlineStr"/>
-      <c r="N19" s="4" t="inlineStr">
+      <c r="L19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5" t="inlineStr"/>
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="5" t="n">
+      <c r="O19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6" t="n">
         <v>44924</v>
       </c>
-      <c r="Q19" s="4" t="inlineStr"/>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 004</t>
         </is>
       </c>
-      <c r="S19" s="4" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 2</t>
         </is>
       </c>
-      <c r="T19" s="5" t="n">
+      <c r="T19" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U19" s="5" t="n">
+      <c r="U19" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V19" s="5" t="n">
+      <c r="V19" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W19" s="5" t="n">
+      <c r="W19" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X19" s="5" t="n">
+      <c r="X19" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z19" s="4" t="inlineStr"/>
-      <c r="AA19" s="4" t="n"/>
+      <c r="Z19" s="5" t="inlineStr"/>
+      <c r="AA19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Gingoog City</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>128065</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Dona J. Pelaez Reyes CS</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>GINGOOG CITY</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="G20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>1000000</v>
       </c>
-      <c r="L20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr">
+      <c r="L20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5" t="inlineStr"/>
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="5" t="n">
+      <c r="O20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6" t="n">
         <v>44924</v>
       </c>
-      <c r="Q20" s="4" t="inlineStr"/>
-      <c r="R20" s="4" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 043</t>
         </is>
       </c>
-      <c r="S20" s="4" t="inlineStr">
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 2</t>
         </is>
       </c>
-      <c r="T20" s="5" t="n">
+      <c r="T20" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U20" s="5" t="n">
+      <c r="U20" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V20" s="5" t="n">
+      <c r="V20" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X20" s="5" t="n">
+      <c r="X20" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y20" s="4" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z20" s="4" t="inlineStr"/>
-      <c r="AA20" s="4" t="n"/>
+      <c r="Z20" s="5" t="inlineStr"/>
+      <c r="AA20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>126897</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Mahinog Central School</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>MAHINOG</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>Replacement</t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <v>6333807.9</v>
       </c>
-      <c r="L21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="4" t="n">
+      <c r="L21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5" t="n">
         <v>6316664.91</v>
       </c>
-      <c r="N21" s="4" t="inlineStr">
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="5" t="n">
+      <c r="O21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="Q21" s="4" t="inlineStr"/>
-      <c r="R21" s="4" t="inlineStr">
+      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 010</t>
         </is>
       </c>
-      <c r="S21" s="4" t="inlineStr">
+      <c r="S21" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 BATCH 2</t>
         </is>
       </c>
-      <c r="T21" s="5" t="n">
+      <c r="T21" s="6" t="n">
         <v>44999</v>
       </c>
-      <c r="U21" s="5" t="n">
+      <c r="U21" s="6" t="n">
         <v>45007</v>
       </c>
-      <c r="V21" s="5" t="n">
+      <c r="V21" s="6" t="n">
         <v>44991</v>
       </c>
-      <c r="W21" s="5" t="n">
+      <c r="W21" s="6" t="n">
         <v>45012</v>
       </c>
-      <c r="X21" s="5" t="n">
+      <c r="X21" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="Y21" s="4" t="inlineStr">
+      <c r="Y21" s="5" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z21" s="4" t="inlineStr"/>
-      <c r="AA21" s="4" t="n"/>
+      <c r="Z21" s="5" t="inlineStr"/>
+      <c r="AA21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>127244</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Aloran Central School</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>ALORAN</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <v>1181156.34</v>
       </c>
-      <c r="L22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4" t="n">
+      <c r="L22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5" t="n">
         <v>1169675.6</v>
       </c>
-      <c r="N22" s="4" t="inlineStr">
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="5" t="n">
+      <c r="O22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="6" t="n">
         <v>45305</v>
       </c>
-      <c r="Q22" s="5" t="n">
+      <c r="Q22" s="6" t="n">
         <v>45322</v>
       </c>
-      <c r="R22" s="4" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S22" s="4" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>010-2023</t>
         </is>
       </c>
-      <c r="T22" s="5" t="n">
+      <c r="T22" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U22" s="5" t="n">
+      <c r="U22" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V22" s="5" t="n">
+      <c r="V22" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W22" s="5" t="n">
+      <c r="W22" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X22" s="5" t="n">
+      <c r="X22" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="Y22" s="4" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>3R'S</t>
         </is>
       </c>
-      <c r="Z22" s="4" t="inlineStr">
+      <c r="Z22" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA22" s="4" t="n"/>
+      <c r="AA22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>304024</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Aloran Trade HS</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>ALORAN</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <v>2631921.7</v>
       </c>
-      <c r="L23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="4" t="n">
+      <c r="L23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5" t="n">
         <v>2605810.49</v>
       </c>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="5" t="n">
+      <c r="O23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="6" t="n">
         <v>45402</v>
       </c>
-      <c r="Q23" s="5" t="n">
+      <c r="Q23" s="6" t="n">
         <v>45322</v>
       </c>
-      <c r="R23" s="4" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S23" s="4" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>010-2023</t>
         </is>
       </c>
-      <c r="T23" s="5" t="n">
+      <c r="T23" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U23" s="5" t="n">
+      <c r="U23" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V23" s="5" t="n">
+      <c r="V23" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W23" s="5" t="n">
+      <c r="W23" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X23" s="5" t="n">
+      <c r="X23" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="Y23" s="4" t="inlineStr">
+      <c r="Y23" s="5" t="inlineStr">
         <is>
           <t>3R'S</t>
         </is>
       </c>
-      <c r="Z23" s="4" t="inlineStr">
+      <c r="Z23" s="5" t="inlineStr">
         <is>
           <t>Ongoing - With Variation Order</t>
         </is>
       </c>
-      <c r="AA23" s="4" t="n"/>
+      <c r="AA23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>127252</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Lobogon ES</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>ALORAN</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>2UNITS 2STY6CL</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <v>49200000</v>
       </c>
-      <c r="L24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4" t="n">
+      <c r="L24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5" t="n">
         <v>48462000</v>
       </c>
-      <c r="N24" s="4" t="inlineStr">
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="5" t="n">
+      <c r="O24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6" t="n">
         <v>45305</v>
       </c>
-      <c r="Q24" s="4" t="inlineStr"/>
-      <c r="R24" s="4" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S24" s="4" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>011-2023</t>
         </is>
       </c>
-      <c r="T24" s="5" t="n">
+      <c r="T24" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U24" s="5" t="n">
+      <c r="U24" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V24" s="5" t="n">
+      <c r="V24" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W24" s="5" t="n">
+      <c r="W24" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X24" s="5" t="n">
+      <c r="X24" s="6" t="n">
         <v>45216</v>
       </c>
-      <c r="Y24" s="4" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>HSO</t>
         </is>
       </c>
-      <c r="Z24" s="4" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA24" s="4" t="n"/>
+      <c r="AA24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>201016</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>Palayan PS</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>ALORAN</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <v>550000</v>
       </c>
-      <c r="L25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="4" t="n">
+      <c r="L25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5" t="n">
         <v>544594.41</v>
       </c>
-      <c r="N25" s="4" t="inlineStr">
+      <c r="N25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="5" t="n">
+      <c r="O25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="6" t="n">
         <v>45305</v>
       </c>
-      <c r="Q25" s="5" t="n">
+      <c r="Q25" s="6" t="n">
         <v>45322</v>
       </c>
-      <c r="R25" s="4" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S25" s="4" t="inlineStr">
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>010-2023</t>
         </is>
       </c>
-      <c r="T25" s="5" t="n">
+      <c r="T25" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U25" s="5" t="n">
+      <c r="U25" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V25" s="5" t="n">
+      <c r="V25" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W25" s="5" t="n">
+      <c r="W25" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X25" s="5" t="n">
+      <c r="X25" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="Y25" s="4" t="inlineStr">
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t>3R'S</t>
         </is>
       </c>
-      <c r="Z25" s="4" t="inlineStr">
+      <c r="Z25" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA25" s="4" t="n"/>
+      <c r="AA25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>127507</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Usocan Elementary School</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>PLARIDEL</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="n">
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="5" t="n">
         <v>3415705.95</v>
       </c>
-      <c r="L26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" s="4" t="n">
+      <c r="L26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5" t="n">
         <v>3392720.89</v>
       </c>
-      <c r="N26" s="4" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="5" t="n">
+      <c r="O26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="6" t="n">
         <v>45369</v>
       </c>
-      <c r="Q26" s="5" t="n">
+      <c r="Q26" s="6" t="n">
         <v>45380</v>
       </c>
-      <c r="R26" s="4" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S26" s="4" t="inlineStr">
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>021-2023</t>
         </is>
       </c>
-      <c r="T26" s="5" t="n">
+      <c r="T26" s="6" t="n">
         <v>45178</v>
       </c>
-      <c r="U26" s="5" t="n">
+      <c r="U26" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V26" s="5" t="n">
+      <c r="V26" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W26" s="5" t="n">
+      <c r="W26" s="6" t="n">
         <v>45211</v>
       </c>
-      <c r="X26" s="5" t="n">
+      <c r="X26" s="6" t="n">
         <v>45273</v>
       </c>
-      <c r="Y26" s="4" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>RJLG Construction and Supplies</t>
         </is>
       </c>
-      <c r="Z26" s="4" t="inlineStr">
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>Ongoing - with issued Site Instruction</t>
         </is>
       </c>
-      <c r="AA26" s="4" t="n"/>
+      <c r="AA26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>127334</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Bitoon Elementary School</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>CLARIN</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4" t="n">
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>1STY4CL</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="5" t="n">
         <v>10094200</v>
       </c>
-      <c r="L27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" s="4" t="n">
+      <c r="L27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5" t="n">
         <v>9791374</v>
       </c>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="N27" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O27" s="4" t="n">
+      <c r="O27" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="P27" s="5" t="n">
+      <c r="P27" s="6" t="n">
         <v>45383</v>
       </c>
-      <c r="Q27" s="4" t="inlineStr"/>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="Q27" s="5" t="inlineStr"/>
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S27" s="4" t="inlineStr">
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>013-2023</t>
         </is>
       </c>
-      <c r="T27" s="5" t="n">
+      <c r="T27" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U27" s="5" t="n">
+      <c r="U27" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V27" s="5" t="n">
+      <c r="V27" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W27" s="5" t="n">
+      <c r="W27" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X27" s="5" t="n">
+      <c r="X27" s="6" t="n">
         <v>45216</v>
       </c>
-      <c r="Y27" s="4" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>SGM</t>
         </is>
       </c>
-      <c r="Z27" s="4" t="inlineStr">
+      <c r="Z27" s="5" t="inlineStr">
         <is>
           <t>Ongoing - with liquidated damages</t>
         </is>
       </c>
-      <c r="AA27" s="4" t="n"/>
+      <c r="AA27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>127538</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Cagay-Anon ES</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>SINACABAN</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="n">
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>2STY4CL</t>
         </is>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="5" t="n">
         <v>16800000</v>
       </c>
-      <c r="L28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" s="4" t="n">
+      <c r="L28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="5" t="n">
         <v>16346376.58</v>
       </c>
-      <c r="N28" s="4" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O28" s="4" t="n">
+      <c r="O28" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="P28" s="5" t="n">
+      <c r="P28" s="6" t="n">
         <v>45375</v>
       </c>
-      <c r="Q28" s="4" t="inlineStr"/>
-      <c r="R28" s="4" t="inlineStr">
+      <c r="Q28" s="5" t="inlineStr"/>
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S28" s="4" t="inlineStr">
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>014-2023</t>
         </is>
       </c>
-      <c r="T28" s="5" t="n">
+      <c r="T28" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U28" s="5" t="n">
+      <c r="U28" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V28" s="5" t="n">
+      <c r="V28" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W28" s="5" t="n">
+      <c r="W28" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X28" s="5" t="n">
+      <c r="X28" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="Y28" s="4" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>3R'S</t>
         </is>
       </c>
-      <c r="Z28" s="4" t="inlineStr">
+      <c r="Z28" s="5" t="inlineStr">
         <is>
           <t>Ongoing-With Suspension Order due to change in foundation to suit actual field condition - Resumption on April 1, 2024</t>
         </is>
       </c>
-      <c r="AA28" s="4" t="n"/>
+      <c r="AA28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>127552</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>San Vicente ES</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>SINACABAN</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="5" t="n">
         <v>1786838.15</v>
       </c>
-      <c r="L29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" s="4" t="n">
+      <c r="L29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5" t="n">
         <v>1773076.95</v>
       </c>
-      <c r="N29" s="4" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="5" t="n">
+      <c r="O29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="6" t="n">
         <v>45369</v>
       </c>
-      <c r="Q29" s="5" t="n">
+      <c r="Q29" s="6" t="n">
         <v>45377</v>
       </c>
-      <c r="R29" s="4" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S29" s="4" t="inlineStr">
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>022-2023</t>
         </is>
       </c>
-      <c r="T29" s="5" t="n">
+      <c r="T29" s="6" t="n">
         <v>45178</v>
       </c>
-      <c r="U29" s="5" t="n">
+      <c r="U29" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V29" s="5" t="n">
+      <c r="V29" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W29" s="5" t="n">
+      <c r="W29" s="6" t="n">
         <v>45211</v>
       </c>
-      <c r="X29" s="4" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>October 27, 2027</t>
         </is>
       </c>
-      <c r="Y29" s="4" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>RJLG Construction and Supplies</t>
         </is>
       </c>
-      <c r="Z29" s="4" t="inlineStr">
+      <c r="Z29" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA29" s="4" t="n"/>
+      <c r="AA29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>127575</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Ozamiz Elementary School</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>TUDELA</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>2STY6CL</t>
         </is>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="5" t="n">
         <v>24600000</v>
       </c>
-      <c r="L30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" s="4" t="n">
+      <c r="L30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5" t="n">
         <v>23861999.87</v>
       </c>
-      <c r="N30" s="4" t="inlineStr">
+      <c r="N30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O30" s="4" t="n">
+      <c r="O30" s="5" t="n">
         <v>0.83</v>
       </c>
-      <c r="P30" s="5" t="n">
+      <c r="P30" s="6" t="n">
         <v>45403</v>
       </c>
-      <c r="Q30" s="4" t="inlineStr"/>
-      <c r="R30" s="4" t="inlineStr">
+      <c r="Q30" s="5" t="inlineStr"/>
+      <c r="R30" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S30" s="4" t="inlineStr">
+      <c r="S30" s="5" t="inlineStr">
         <is>
           <t>015-2023</t>
         </is>
       </c>
-      <c r="T30" s="5" t="n">
+      <c r="T30" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U30" s="5" t="n">
+      <c r="U30" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V30" s="5" t="n">
+      <c r="V30" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W30" s="5" t="n">
+      <c r="W30" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X30" s="5" t="n">
+      <c r="X30" s="6" t="n">
         <v>45216</v>
       </c>
-      <c r="Y30" s="4" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>Mindanao Rock</t>
         </is>
       </c>
-      <c r="Z30" s="4" t="inlineStr">
+      <c r="Z30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA30" s="4" t="n"/>
+      <c r="AA30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>127582</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Tudela Central School</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>TUDELA</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="n">
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="5" t="n">
         <v>766473.74</v>
       </c>
-      <c r="L31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="4" t="n">
+      <c r="L31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5" t="n">
         <v>758014.3</v>
       </c>
-      <c r="N31" s="4" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="5" t="n">
+      <c r="O31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="6" t="n">
         <v>45305</v>
       </c>
-      <c r="Q31" s="5" t="n">
+      <c r="Q31" s="6" t="n">
         <v>45322</v>
       </c>
-      <c r="R31" s="4" t="inlineStr">
+      <c r="R31" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S31" s="4" t="inlineStr">
+      <c r="S31" s="5" t="inlineStr">
         <is>
           <t>018-2023</t>
         </is>
       </c>
-      <c r="T31" s="5" t="n">
+      <c r="T31" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U31" s="5" t="n">
+      <c r="U31" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V31" s="5" t="n">
+      <c r="V31" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W31" s="5" t="n">
+      <c r="W31" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X31" s="5" t="n">
+      <c r="X31" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="Y31" s="4" t="inlineStr">
+      <c r="Y31" s="5" t="inlineStr">
         <is>
           <t>3R'S</t>
         </is>
       </c>
-      <c r="Z31" s="4" t="inlineStr">
+      <c r="Z31" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA31" s="4" t="n"/>
+      <c r="AA31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>304058</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>Tudela National Comprehensive High School</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>TUDELA</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="n">
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="5" t="n">
         <v>2173436.49</v>
       </c>
-      <c r="L32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" s="4" t="n">
+      <c r="L32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5" t="n">
         <v>2151115.2</v>
       </c>
-      <c r="N32" s="4" t="inlineStr">
+      <c r="N32" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="5" t="n">
+      <c r="O32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="6" t="n">
         <v>45305</v>
       </c>
-      <c r="Q32" s="5" t="n">
+      <c r="Q32" s="6" t="n">
         <v>45322</v>
       </c>
-      <c r="R32" s="4" t="inlineStr">
+      <c r="R32" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S32" s="4" t="inlineStr">
+      <c r="S32" s="5" t="inlineStr">
         <is>
           <t>018-2023</t>
         </is>
       </c>
-      <c r="T32" s="5" t="n">
+      <c r="T32" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U32" s="5" t="n">
+      <c r="U32" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V32" s="5" t="n">
+      <c r="V32" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W32" s="5" t="n">
+      <c r="W32" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X32" s="5" t="n">
+      <c r="X32" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="Y32" s="4" t="inlineStr">
+      <c r="Y32" s="5" t="inlineStr">
         <is>
           <t>3R'S</t>
         </is>
       </c>
-      <c r="Z32" s="4" t="inlineStr">
+      <c r="Z32" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA32" s="4" t="n"/>
+      <c r="AA32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>304089</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>Medina NCHS</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>MEDINA</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="n">
+      <c r="H33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>3STY15CL</t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="5" t="n">
         <v>45000000</v>
       </c>
-      <c r="L33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" s="4" t="n">
+      <c r="L33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5" t="n">
         <v>39598320.79</v>
       </c>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="N33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="4" t="inlineStr">
+      <c r="O33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="5" t="inlineStr">
         <is>
           <t>September 30, 2024</t>
         </is>
       </c>
-      <c r="Q33" s="4" t="inlineStr"/>
-      <c r="R33" s="4" t="inlineStr">
+      <c r="Q33" s="5" t="inlineStr"/>
+      <c r="R33" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S33" s="4" t="inlineStr">
+      <c r="S33" s="5" t="inlineStr">
         <is>
           <t>PB Const2023-002</t>
         </is>
       </c>
-      <c r="T33" s="4" t="inlineStr">
+      <c r="T33" s="5" t="inlineStr">
         <is>
           <t>June 3,2023</t>
         </is>
       </c>
-      <c r="U33" s="4" t="inlineStr">
+      <c r="U33" s="5" t="inlineStr">
         <is>
           <t>June 13,2023</t>
         </is>
       </c>
-      <c r="V33" s="4" t="inlineStr">
+      <c r="V33" s="5" t="inlineStr">
         <is>
           <t>June 27,2023</t>
         </is>
       </c>
-      <c r="W33" s="4" t="inlineStr">
+      <c r="W33" s="5" t="inlineStr">
         <is>
           <t>July 27,2023</t>
         </is>
       </c>
-      <c r="X33" s="4" t="inlineStr">
+      <c r="X33" s="5" t="inlineStr">
         <is>
           <t>October 27, 2023</t>
         </is>
       </c>
-      <c r="Y33" s="4" t="inlineStr">
+      <c r="Y33" s="5" t="inlineStr">
         <is>
           <t>Junjing Construction and Gen Mer.</t>
         </is>
       </c>
-      <c r="Z33" s="4" t="inlineStr">
+      <c r="Z33" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA33" s="4" t="n"/>
+      <c r="AA33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="5" t="n">
         <v>304081</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>Lourdes Alubijid NHS</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>ALUBIJID</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4" t="n">
+      <c r="H34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>Structural Assessment &amp; Repair of 1CL TVL Bldg.</t>
         </is>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="5" t="n">
         <v>1000000</v>
       </c>
-      <c r="L34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" s="4" t="n">
+      <c r="L34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="5" t="n">
         <v>835775.02</v>
       </c>
-      <c r="N34" s="4" t="inlineStr">
+      <c r="N34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="4" t="inlineStr">
+      <c r="O34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="5" t="inlineStr">
         <is>
           <t>March 1,2024</t>
         </is>
       </c>
-      <c r="Q34" s="4" t="inlineStr">
+      <c r="Q34" s="5" t="inlineStr">
         <is>
           <t>February 25, 2024</t>
         </is>
       </c>
-      <c r="R34" s="4" t="inlineStr">
+      <c r="R34" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S34" s="4" t="inlineStr">
+      <c r="S34" s="5" t="inlineStr">
         <is>
           <t>G2PB Repair 2023-001</t>
         </is>
       </c>
-      <c r="T34" s="4" t="inlineStr">
+      <c r="T34" s="5" t="inlineStr">
         <is>
           <t>October 10,2023</t>
         </is>
       </c>
-      <c r="U34" s="4" t="inlineStr">
+      <c r="U34" s="5" t="inlineStr">
         <is>
           <t>Oct 23,2023</t>
         </is>
       </c>
-      <c r="V34" s="4" t="inlineStr">
+      <c r="V34" s="5" t="inlineStr">
         <is>
           <t>Nov 6,2023</t>
         </is>
       </c>
-      <c r="W34" s="4" t="inlineStr">
+      <c r="W34" s="5" t="inlineStr">
         <is>
           <t>Nov 22, 2023</t>
         </is>
       </c>
-      <c r="X34" s="4" t="inlineStr">
+      <c r="X34" s="5" t="inlineStr">
         <is>
           <t>Dec.19, 2023</t>
         </is>
       </c>
-      <c r="Y34" s="4" t="inlineStr">
+      <c r="Y34" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tri - FB </t>
         </is>
       </c>
-      <c r="Z34" s="4" t="inlineStr">
+      <c r="Z34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA34" s="4" t="n"/>
+      <c r="AA34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Oroquieta City</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="5" t="n">
         <v>127437</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>Oroquieta City CES</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>OROQUIETA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4" t="n">
+      <c r="H35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t>2STY8CL</t>
         </is>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="5" t="n">
         <v>24871003.7</v>
       </c>
-      <c r="L35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" s="4" t="n">
+      <c r="L35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" s="5" t="n">
         <v>21907012.66</v>
       </c>
-      <c r="N35" s="4" t="inlineStr">
+      <c r="N35" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="4" t="inlineStr">
+      <c r="O35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="5" t="inlineStr">
         <is>
           <t>17‎ ‎July‎ ‎2024</t>
         </is>
       </c>
-      <c r="Q35" s="4" t="inlineStr"/>
-      <c r="R35" s="4" t="inlineStr">
+      <c r="Q35" s="5" t="inlineStr"/>
+      <c r="R35" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023-DEPEDOROQ-1</t>
         </is>
       </c>
-      <c r="S35" s="4" t="inlineStr"/>
-      <c r="T35" s="5" t="n">
+      <c r="S35" s="5" t="inlineStr"/>
+      <c r="T35" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U35" s="5" t="n">
+      <c r="U35" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V35" s="5" t="n">
+      <c r="V35" s="6" t="n">
         <v>45068</v>
       </c>
-      <c r="W35" s="5" t="n">
+      <c r="W35" s="6" t="n">
         <v>45117</v>
       </c>
-      <c r="X35" s="5" t="n">
+      <c r="X35" s="6" t="n">
         <v>45121</v>
       </c>
-      <c r="Y35" s="4" t="inlineStr">
+      <c r="Y35" s="5" t="inlineStr">
         <is>
           <t>G-Baron Construction</t>
         </is>
       </c>
-      <c r="Z35" s="4" t="inlineStr">
+      <c r="Z35" s="5" t="inlineStr">
         <is>
           <t>variance is subject for utilization</t>
         </is>
       </c>
-      <c r="AA35" s="4" t="n"/>
+      <c r="AA35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Oroquieta City</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="5" t="n">
         <v>304049</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>Rizal NHS</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>OROQUIETA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4" t="n">
+      <c r="H36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t>2STY6CL</t>
         </is>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="5" t="n">
         <v>18906773.84</v>
       </c>
-      <c r="L36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" s="4" t="n">
+      <c r="L36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" s="5" t="n">
         <v>16036677.23</v>
       </c>
-      <c r="N36" s="4" t="inlineStr">
+      <c r="N36" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="4" t="inlineStr">
+      <c r="O36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> ‎29‎ ‎December‎ ‎2023</t>
         </is>
       </c>
-      <c r="Q36" s="4" t="inlineStr"/>
-      <c r="R36" s="4" t="inlineStr">
+      <c r="Q36" s="5" t="inlineStr"/>
+      <c r="R36" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023-DEPEDOROQ-3</t>
         </is>
       </c>
-      <c r="S36" s="4" t="inlineStr"/>
-      <c r="T36" s="5" t="n">
+      <c r="S36" s="5" t="inlineStr"/>
+      <c r="T36" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U36" s="5" t="n">
+      <c r="U36" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V36" s="5" t="n">
+      <c r="V36" s="6" t="n">
         <v>45069</v>
       </c>
-      <c r="W36" s="5" t="n">
+      <c r="W36" s="6" t="n">
         <v>45103</v>
       </c>
-      <c r="X36" s="5" t="n">
+      <c r="X36" s="6" t="n">
         <v>45124</v>
       </c>
-      <c r="Y36" s="4" t="inlineStr">
+      <c r="Y36" s="5" t="inlineStr">
         <is>
           <t>RJLG Construction</t>
         </is>
       </c>
-      <c r="Z36" s="4" t="inlineStr">
+      <c r="Z36" s="5" t="inlineStr">
         <is>
           <t>Completed - Subject for turn-over</t>
         </is>
       </c>
-      <c r="AA36" s="4" t="n"/>
+      <c r="AA36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Oroquieta City</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="5" t="n">
         <v>127474</v>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>Vicente Flores MES</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>OROQUIETA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4" t="n">
+      <c r="H37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>2STY6CL</t>
         </is>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="5" t="n">
         <v>21824913.64</v>
       </c>
-      <c r="L37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" s="4" t="n">
+      <c r="L37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" s="5" t="n">
         <v>18973207.53</v>
       </c>
-      <c r="N37" s="4" t="inlineStr">
+      <c r="N37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" s="4" t="inlineStr">
+      <c r="O37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> ‎13‎ ‎January‎ ‎2024</t>
         </is>
       </c>
-      <c r="Q37" s="4" t="inlineStr"/>
-      <c r="R37" s="4" t="inlineStr">
+      <c r="Q37" s="5" t="inlineStr"/>
+      <c r="R37" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023-DEPEDOROQ-2</t>
         </is>
       </c>
-      <c r="S37" s="4" t="inlineStr"/>
-      <c r="T37" s="5" t="n">
+      <c r="S37" s="5" t="inlineStr"/>
+      <c r="T37" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U37" s="5" t="n">
+      <c r="U37" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V37" s="5" t="n">
+      <c r="V37" s="6" t="n">
         <v>45068</v>
       </c>
-      <c r="W37" s="5" t="n">
+      <c r="W37" s="6" t="n">
         <v>45103</v>
       </c>
-      <c r="X37" s="5" t="n">
+      <c r="X37" s="6" t="n">
         <v>45124</v>
       </c>
-      <c r="Y37" s="4" t="inlineStr">
+      <c r="Y37" s="5" t="inlineStr">
         <is>
           <t>RJLG Construction</t>
         </is>
       </c>
-      <c r="Z37" s="4" t="inlineStr">
+      <c r="Z37" s="5" t="inlineStr">
         <is>
           <t>variance is subject for utilization</t>
         </is>
       </c>
-      <c r="AA37" s="4" t="n"/>
+      <c r="AA37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Oroquieta City</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="5" t="n">
         <v>127474</v>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>Vicente Flores MES</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>OROQUIETA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G38" s="4" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H38" s="4" t="inlineStr"/>
-      <c r="I38" s="4" t="n">
+      <c r="H38" s="5" t="inlineStr"/>
+      <c r="I38" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="J38" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="K38" s="5" t="n">
         <v>4793783.14</v>
       </c>
-      <c r="L38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" s="4" t="n">
+      <c r="L38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" s="5" t="n">
         <v>3817916.63</v>
       </c>
-      <c r="N38" s="4" t="inlineStr">
+      <c r="N38" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="4" t="inlineStr">
+      <c r="O38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="5" t="inlineStr">
         <is>
           <t>‎14‎ ‎December‎ ‎2023</t>
         </is>
       </c>
-      <c r="Q38" s="4" t="inlineStr"/>
-      <c r="R38" s="4" t="inlineStr">
+      <c r="Q38" s="5" t="inlineStr"/>
+      <c r="R38" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023-DEPEDOROQ-4</t>
         </is>
       </c>
-      <c r="S38" s="4" t="inlineStr"/>
-      <c r="T38" s="5" t="n">
+      <c r="S38" s="5" t="inlineStr"/>
+      <c r="T38" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U38" s="5" t="n">
+      <c r="U38" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V38" s="5" t="n">
+      <c r="V38" s="6" t="n">
         <v>45069</v>
       </c>
-      <c r="W38" s="5" t="n">
+      <c r="W38" s="6" t="n">
         <v>45103</v>
       </c>
-      <c r="X38" s="5" t="n">
+      <c r="X38" s="6" t="n">
         <v>45124</v>
       </c>
-      <c r="Y38" s="4" t="inlineStr">
+      <c r="Y38" s="5" t="inlineStr">
         <is>
           <t>RJLG Construction</t>
         </is>
       </c>
-      <c r="Z38" s="4" t="inlineStr">
+      <c r="Z38" s="5" t="inlineStr">
         <is>
           <t>variance is subject for utilization</t>
         </is>
       </c>
-      <c r="AA38" s="4" t="n"/>
+      <c r="AA38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Bukidnon</t>
         </is>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="5" t="n">
         <v>126484</v>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t>Sagasaan ES</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>KITAOTAO</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4" t="n">
+      <c r="H39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K39" s="4" t="n">
+      <c r="K39" s="5" t="n">
         <v>6599650.8</v>
       </c>
-      <c r="L39" s="4" t="inlineStr">
+      <c r="L39" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M39" s="4" t="inlineStr"/>
-      <c r="N39" s="4" t="inlineStr">
+      <c r="M39" s="5" t="inlineStr"/>
+      <c r="N39" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O39" s="4" t="n">
+      <c r="O39" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="P39" s="4" t="inlineStr"/>
-      <c r="Q39" s="4" t="inlineStr"/>
-      <c r="R39" s="4" t="inlineStr"/>
-      <c r="S39" s="4" t="inlineStr"/>
-      <c r="T39" s="4" t="inlineStr"/>
-      <c r="U39" s="4" t="inlineStr"/>
-      <c r="V39" s="4" t="inlineStr"/>
-      <c r="W39" s="4" t="inlineStr"/>
-      <c r="X39" s="4" t="inlineStr"/>
-      <c r="Y39" s="4" t="inlineStr"/>
-      <c r="Z39" s="4" t="inlineStr"/>
-      <c r="AA39" s="4" t="n"/>
+      <c r="P39" s="5" t="inlineStr"/>
+      <c r="Q39" s="5" t="inlineStr"/>
+      <c r="R39" s="5" t="inlineStr"/>
+      <c r="S39" s="5" t="inlineStr"/>
+      <c r="T39" s="5" t="inlineStr"/>
+      <c r="U39" s="5" t="inlineStr"/>
+      <c r="V39" s="5" t="inlineStr"/>
+      <c r="W39" s="5" t="inlineStr"/>
+      <c r="X39" s="5" t="inlineStr"/>
+      <c r="Y39" s="5" t="inlineStr"/>
+      <c r="Z39" s="5" t="inlineStr"/>
+      <c r="AA39" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region X/Region X_QRF.xlsx
+++ b/Filtered_By_Region/Region X/Region X_QRF.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region X/Region X_QRF.xlsx
+++ b/Filtered_By_Region/Region X/Region X_QRF.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA39"/>
+  <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,3962 +453,4081 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="43" customWidth="1" min="5" max="5"/>
-    <col width="26" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="64" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="43" customWidth="1" min="6" max="6"/>
+    <col width="26" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="64" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="33" customWidth="1" min="18" max="18"/>
-    <col width="36" customWidth="1" min="19" max="19"/>
-    <col width="31" customWidth="1" min="20" max="20"/>
-    <col width="27" customWidth="1" min="21" max="21"/>
-    <col width="21" customWidth="1" min="22" max="22"/>
-    <col width="33" customWidth="1" min="23" max="23"/>
-    <col width="31" customWidth="1" min="24" max="24"/>
-    <col width="35" customWidth="1" min="25" max="25"/>
-    <col width="120" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="33" customWidth="1" min="19" max="19"/>
+    <col width="36" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="35" customWidth="1" min="26" max="26"/>
+    <col width="120" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="4" t="inlineStr">
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>2285</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>303994</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Mambajao NHS</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>MAMBAJAO (Capital)</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>DAMAGED CLASSROOMS DUE TO TREES TOPPLED OVER IT (STRONG WINDS)</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>1473234.144102</v>
       </c>
-      <c r="L2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="n">
         <v>1462809.68</v>
       </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6" t="n">
         <v>44597</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="R2" s="6" t="n">
         <v>44548</v>
       </c>
-      <c r="R2" s="5" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>QRF 2021 - R X - Camiguin - 003</t>
         </is>
       </c>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>Infra-01-02-2021</t>
         </is>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="U2" s="6" t="n">
         <v>44348</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="V2" s="6" t="n">
         <v>44721</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="W2" s="6" t="n">
         <v>44368</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="X2" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="X2" s="6" t="n">
+      <c r="Y2" s="6" t="n">
         <v>44417</v>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>JAPUZ JANSOL ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z2" s="5" t="inlineStr"/>
-      <c r="AA2" s="7" t="n"/>
+      <c r="AA2" s="5" t="inlineStr"/>
+      <c r="AB2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>2286</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>126921</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Tupsan ES</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>MAMBAJAO (Capital)</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="H3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>FIRE INCIDENT</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>1971512.26935075</v>
       </c>
-      <c r="L3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="n">
         <v>1960536.73</v>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6" t="n">
+      <c r="P3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="n">
         <v>44644</v>
       </c>
-      <c r="Q3" s="6" t="n">
+      <c r="R3" s="6" t="n">
         <v>44716</v>
       </c>
-      <c r="R3" s="5" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>QRF 2021 - R X - Camiguin - 002</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>Infra-01-03-2021</t>
         </is>
       </c>
-      <c r="T3" s="6" t="n">
+      <c r="U3" s="6" t="n">
         <v>44348</v>
       </c>
-      <c r="U3" s="6" t="n">
+      <c r="V3" s="6" t="n">
         <v>44721</v>
       </c>
-      <c r="V3" s="6" t="n">
+      <c r="W3" s="6" t="n">
         <v>44368</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="X3" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="X3" s="6" t="n">
+      <c r="Y3" s="6" t="n">
         <v>44417</v>
       </c>
-      <c r="Y3" s="5" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>JAPUZ JANSOL ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z3" s="5" t="inlineStr"/>
-      <c r="AA3" s="7" t="n"/>
+      <c r="AA3" s="5" t="inlineStr"/>
+      <c r="AB3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>2287</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>126921</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Tupsan ES</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>MAMBAJAO (Capital)</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="H4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>DAMAGED CLASSROOMS DUE TO TREES TOPPLED OVER IT (STRONG WINDS)</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>4758089.789206878</v>
       </c>
-      <c r="L4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="n">
         <v>1960536.73</v>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6" t="n">
+      <c r="P4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6" t="n">
         <v>44597</v>
       </c>
-      <c r="Q4" s="6" t="n">
+      <c r="R4" s="6" t="n">
         <v>44548</v>
       </c>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>QRF 2021 - R X - Camiguin - 004</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>Infra-01-02-2021</t>
         </is>
       </c>
-      <c r="T4" s="6" t="n">
+      <c r="U4" s="6" t="n">
         <v>44348</v>
       </c>
-      <c r="U4" s="6" t="n">
+      <c r="V4" s="6" t="n">
         <v>44721</v>
       </c>
-      <c r="V4" s="6" t="n">
+      <c r="W4" s="6" t="n">
         <v>44368</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="X4" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="X4" s="6" t="n">
+      <c r="Y4" s="6" t="n">
         <v>44417</v>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>Minkonstrak Eng'g. &amp; Gen. Srvcs.</t>
         </is>
       </c>
-      <c r="Z4" s="5" t="inlineStr"/>
-      <c r="AA4" s="7" t="n"/>
+      <c r="AA4" s="5" t="inlineStr"/>
+      <c r="AB4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>2288</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>126936</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Subocan ES</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>SAGAY</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>DAMAGED CLASSROOMS DUE TO TREES TOPPLED OVER IT (STRONG WINDS)</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>4849009.289206878</v>
       </c>
-      <c r="L5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="n">
         <v>4838031.27</v>
       </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="6" t="n">
+      <c r="P5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6" t="n">
         <v>44582</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="R5" s="6" t="n">
         <v>44618</v>
       </c>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>QRF 2021 - R X - Camiguin - 001</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>Infra-01-04-2021</t>
         </is>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="U5" s="6" t="n">
         <v>44348</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="V5" s="6" t="n">
         <v>44721</v>
       </c>
-      <c r="V5" s="6" t="n">
+      <c r="W5" s="6" t="n">
         <v>44368</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="X5" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="X5" s="6" t="n">
+      <c r="Y5" s="6" t="n">
         <v>44417</v>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>Minkonstrak Eng'g. &amp; Gen. Srvcs.</t>
         </is>
       </c>
-      <c r="Z5" s="5" t="inlineStr"/>
-      <c r="AA5" s="7" t="n"/>
+      <c r="AA5" s="5" t="inlineStr"/>
+      <c r="AB5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>2558</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>126885</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Catarman CS</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>CATARMAN</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="H6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>NEW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>19869482.89</v>
       </c>
-      <c r="L6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="n">
         <v>19866688.44</v>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="6" t="n">
+      <c r="P6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6" t="n">
         <v>45168</v>
       </c>
-      <c r="Q6" s="6" t="n">
+      <c r="R6" s="6" t="n">
         <v>45156</v>
       </c>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 004</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 2</t>
         </is>
       </c>
-      <c r="T6" s="6" t="n">
+      <c r="U6" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="V6" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V6" s="6" t="n">
+      <c r="W6" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="X6" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X6" s="6" t="n">
+      <c r="Y6" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z6" s="5" t="inlineStr"/>
-      <c r="AA6" s="7" t="n"/>
+      <c r="AA6" s="5" t="inlineStr"/>
+      <c r="AB6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>2559</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>126885</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Catarman CS</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>CATARMAN</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="H7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="J7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>150000</v>
       </c>
-      <c r="L7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="n">
         <v>149472.02</v>
       </c>
-      <c r="N7" s="5" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="n">
+      <c r="P7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6" t="n">
         <v>45168</v>
       </c>
-      <c r="Q7" s="6" t="n">
+      <c r="R7" s="6" t="n">
         <v>45156</v>
       </c>
-      <c r="R7" s="5" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 043</t>
         </is>
       </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 2</t>
         </is>
       </c>
-      <c r="T7" s="6" t="n">
+      <c r="U7" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U7" s="6" t="n">
+      <c r="V7" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V7" s="6" t="n">
+      <c r="W7" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W7" s="6" t="n">
+      <c r="X7" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X7" s="6" t="n">
+      <c r="Y7" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z7" s="5" t="inlineStr"/>
-      <c r="AA7" s="7" t="n"/>
+      <c r="AA7" s="5" t="inlineStr"/>
+      <c r="AB7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>2560</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>126928</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>BUTAY ES</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>GUINSILIBAN</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>300000</v>
       </c>
-      <c r="L8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5" t="n">
         <v>296463.41</v>
       </c>
-      <c r="N8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="6" t="n">
+      <c r="P8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6" t="n">
         <v>45078</v>
       </c>
-      <c r="Q8" s="6" t="n">
+      <c r="R8" s="6" t="n">
         <v>45143</v>
       </c>
-      <c r="R8" s="5" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 033</t>
         </is>
       </c>
-      <c r="S8" s="5" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 3</t>
         </is>
       </c>
-      <c r="T8" s="6" t="n">
+      <c r="U8" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U8" s="6" t="n">
+      <c r="V8" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V8" s="6" t="n">
+      <c r="W8" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W8" s="6" t="n">
+      <c r="X8" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X8" s="6" t="n">
+      <c r="Y8" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z8" s="5" t="inlineStr"/>
-      <c r="AA8" s="7" t="n"/>
+      <c r="AA8" s="5" t="inlineStr"/>
+      <c r="AB8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>2561</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>126931</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Guinsiliban CS</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>GUINSILIBAN</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>800000</v>
       </c>
-      <c r="L9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5" t="n">
         <v>798629.5699999999</v>
       </c>
-      <c r="N9" s="5" t="inlineStr">
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="6" t="n">
         <v>45078</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="R9" s="6" t="n">
         <v>45143</v>
       </c>
-      <c r="R9" s="5" t="inlineStr">
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 031</t>
         </is>
       </c>
-      <c r="S9" s="5" t="inlineStr">
+      <c r="T9" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 3</t>
         </is>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="U9" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="V9" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="W9" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="X9" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X9" s="6" t="n">
+      <c r="Y9" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y9" s="5" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z9" s="5" t="inlineStr"/>
-      <c r="AA9" s="7" t="n"/>
+      <c r="AA9" s="5" t="inlineStr"/>
+      <c r="AB9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>2562</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>126933</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Maac Elementary School</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>GUINSILIBAN</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>NEW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>12667615.79</v>
       </c>
-      <c r="L10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5" t="n">
         <v>12662340.68</v>
       </c>
-      <c r="N10" s="5" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6" t="n">
+      <c r="P10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6" t="n">
         <v>45078</v>
       </c>
-      <c r="Q10" s="6" t="n">
+      <c r="R10" s="6" t="n">
         <v>45143</v>
       </c>
-      <c r="R10" s="5" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 005</t>
         </is>
       </c>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 3</t>
         </is>
       </c>
-      <c r="T10" s="6" t="n">
+      <c r="U10" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U10" s="6" t="n">
+      <c r="V10" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V10" s="6" t="n">
+      <c r="W10" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W10" s="6" t="n">
+      <c r="X10" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X10" s="6" t="n">
+      <c r="Y10" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z10" s="5" t="inlineStr"/>
-      <c r="AA10" s="7" t="n"/>
+      <c r="AA10" s="5" t="inlineStr"/>
+      <c r="AB10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>2563</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>126914</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Mambajao CS</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>MAMBAJAO (Capital)</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>NEW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>22536171.13</v>
       </c>
-      <c r="L11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5" t="n">
         <v>22525933.1</v>
       </c>
-      <c r="N11" s="5" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
+      <c r="P11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Q11" s="6" t="n">
+      <c r="R11" s="6" t="n">
         <v>45226</v>
       </c>
-      <c r="R11" s="5" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 003</t>
         </is>
       </c>
-      <c r="S11" s="5" t="inlineStr">
+      <c r="T11" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 1</t>
         </is>
       </c>
-      <c r="T11" s="6" t="n">
+      <c r="U11" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U11" s="6" t="n">
+      <c r="V11" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V11" s="6" t="n">
+      <c r="W11" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W11" s="6" t="n">
+      <c r="X11" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X11" s="6" t="n">
+      <c r="Y11" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y11" s="5" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z11" s="5" t="inlineStr"/>
-      <c r="AA11" s="7" t="n"/>
+      <c r="AA11" s="5" t="inlineStr"/>
+      <c r="AB11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>2564</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>126914</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Mambajao CS</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>MAMBAJAO (Capital)</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="H12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>650981.29</v>
       </c>
-      <c r="L12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="n">
         <v>644855.12</v>
       </c>
-      <c r="N12" s="5" t="inlineStr">
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="6" t="n">
+      <c r="P12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Q12" s="6" t="n">
+      <c r="R12" s="6" t="n">
         <v>45226</v>
       </c>
-      <c r="R12" s="5" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 021</t>
         </is>
       </c>
-      <c r="S12" s="5" t="inlineStr">
+      <c r="T12" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 1</t>
         </is>
       </c>
-      <c r="T12" s="6" t="n">
+      <c r="U12" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U12" s="6" t="n">
+      <c r="V12" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V12" s="6" t="n">
+      <c r="W12" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W12" s="6" t="n">
+      <c r="X12" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X12" s="6" t="n">
+      <c r="Y12" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y12" s="5" t="inlineStr">
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z12" s="5" t="inlineStr"/>
-      <c r="AA12" s="7" t="n"/>
+      <c r="AA12" s="5" t="inlineStr"/>
+      <c r="AB12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>2565</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>126935</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Sagay Central School</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>SAGAY</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>1866506.75</v>
       </c>
-      <c r="L13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5" t="n">
         <v>1860652.7</v>
       </c>
-      <c r="N13" s="5" t="inlineStr">
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="6" t="n">
+      <c r="P13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Q13" s="5" t="inlineStr"/>
-      <c r="R13" s="5" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr"/>
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 015</t>
         </is>
       </c>
-      <c r="S13" s="5" t="inlineStr">
+      <c r="T13" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 4</t>
         </is>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="U13" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U13" s="6" t="n">
+      <c r="V13" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V13" s="6" t="n">
+      <c r="W13" s="6" t="n">
         <v>44372</v>
       </c>
-      <c r="W13" s="6" t="n">
+      <c r="X13" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X13" s="6" t="n">
+      <c r="Y13" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y13" s="5" t="inlineStr">
+      <c r="Z13" s="5" t="inlineStr">
         <is>
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z13" s="5" t="inlineStr"/>
-      <c r="AA13" s="7" t="n"/>
+      <c r="AA13" s="5" t="inlineStr"/>
+      <c r="AB13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>2566</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>126935</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Sagay Central School</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>SAGAY</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>NEW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>24369730.96</v>
       </c>
-      <c r="L14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5" t="n">
         <v>24363319.78</v>
       </c>
-      <c r="N14" s="5" t="inlineStr">
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="6" t="n">
+      <c r="P14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Q14" s="5" t="inlineStr"/>
-      <c r="R14" s="5" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr"/>
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 002</t>
         </is>
       </c>
-      <c r="S14" s="5" t="inlineStr">
+      <c r="T14" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 4</t>
         </is>
       </c>
-      <c r="T14" s="6" t="n">
+      <c r="U14" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="V14" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V14" s="6" t="n">
+      <c r="W14" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W14" s="6" t="n">
+      <c r="X14" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X14" s="6" t="n">
+      <c r="Y14" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y14" s="5" t="inlineStr">
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z14" s="5" t="inlineStr"/>
-      <c r="AA14" s="7" t="n"/>
+      <c r="AA14" s="5" t="inlineStr"/>
+      <c r="AB14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>2567</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>127670</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Cogon ES</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>CITY OF EL SALVADOR</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="H15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>NEW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>5858817.72</v>
       </c>
-      <c r="L15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5" t="n">
         <v>4624522.96</v>
       </c>
-      <c r="N15" s="5" t="inlineStr">
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6" t="n">
+      <c r="P15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="6" t="n">
         <v>45123</v>
       </c>
-      <c r="Q15" s="6" t="n">
+      <c r="R15" s="6" t="n">
         <v>45103</v>
       </c>
-      <c r="R15" s="5" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>2022-04-0066</t>
         </is>
       </c>
-      <c r="S15" s="5" t="inlineStr"/>
-      <c r="T15" s="6" t="n">
+      <c r="T15" s="5" t="inlineStr"/>
+      <c r="U15" s="6" t="n">
         <v>44680</v>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="V15" s="6" t="n">
         <v>44692</v>
       </c>
-      <c r="V15" s="6" t="n">
+      <c r="W15" s="6" t="n">
         <v>44704</v>
       </c>
-      <c r="W15" s="6" t="n">
+      <c r="X15" s="6" t="n">
         <v>44829</v>
       </c>
-      <c r="X15" s="6" t="n">
+      <c r="Y15" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Y15" s="5" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>Tri FB Construction &amp; Gen Mdse</t>
         </is>
       </c>
-      <c r="Z15" s="5" t="inlineStr"/>
-      <c r="AA15" s="7" t="n"/>
+      <c r="AA15" s="5" t="inlineStr"/>
+      <c r="AB15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>2568</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>127677</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Pedro Sa. Baculio ES (Bolobolo)</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>CITY OF EL SALVADOR</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="H16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>1301701.99</v>
       </c>
-      <c r="L16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5" t="n">
         <v>1105506.66</v>
       </c>
-      <c r="N16" s="5" t="inlineStr">
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="6" t="n">
+      <c r="P16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="6" t="n">
         <v>45003</v>
       </c>
-      <c r="Q16" s="6" t="n">
+      <c r="R16" s="6" t="n">
         <v>45041</v>
       </c>
-      <c r="R16" s="5" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>2022-04-0067</t>
         </is>
       </c>
-      <c r="S16" s="5" t="inlineStr"/>
-      <c r="T16" s="6" t="n">
+      <c r="T16" s="5" t="inlineStr"/>
+      <c r="U16" s="6" t="n">
         <v>44680</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="V16" s="6" t="n">
         <v>44692</v>
       </c>
-      <c r="V16" s="6" t="n">
+      <c r="W16" s="6" t="n">
         <v>44704</v>
       </c>
-      <c r="W16" s="6" t="n">
+      <c r="X16" s="6" t="n">
         <v>44829</v>
       </c>
-      <c r="X16" s="6" t="n">
+      <c r="Y16" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Y16" s="5" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>AbrahamBM Construction</t>
         </is>
       </c>
-      <c r="Z16" s="5" t="inlineStr"/>
-      <c r="AA16" s="7" t="n"/>
+      <c r="AA16" s="5" t="inlineStr"/>
+      <c r="AB16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>2569</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>127677</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Pedro Sa. Baculio ES (Bolobolo)</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>CITY OF EL SALVADOR</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="H17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="5" t="inlineStr"/>
+      <c r="J17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>NEW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>6509328.44</v>
       </c>
-      <c r="L17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5" t="n">
         <v>5313487.54</v>
       </c>
-      <c r="N17" s="5" t="inlineStr">
+      <c r="O17" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="6" t="n">
+      <c r="P17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="6" t="n">
         <v>45123</v>
       </c>
-      <c r="Q17" s="6" t="n">
+      <c r="R17" s="6" t="n">
         <v>44960</v>
       </c>
-      <c r="R17" s="5" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>2022-04-0069</t>
         </is>
       </c>
-      <c r="S17" s="5" t="inlineStr"/>
-      <c r="T17" s="6" t="n">
+      <c r="T17" s="5" t="inlineStr"/>
+      <c r="U17" s="6" t="n">
         <v>44680</v>
       </c>
-      <c r="U17" s="6" t="n">
+      <c r="V17" s="6" t="n">
         <v>44692</v>
       </c>
-      <c r="V17" s="6" t="n">
+      <c r="W17" s="6" t="n">
         <v>44704</v>
       </c>
-      <c r="W17" s="6" t="n">
+      <c r="X17" s="6" t="n">
         <v>44829</v>
       </c>
-      <c r="X17" s="6" t="n">
+      <c r="Y17" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Y17" s="5" t="inlineStr">
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>AbrahamBM Construction</t>
         </is>
       </c>
-      <c r="Z17" s="5" t="inlineStr"/>
-      <c r="AA17" s="7" t="n"/>
+      <c r="AA17" s="5" t="inlineStr"/>
+      <c r="AB17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>2570</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>127678</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Sambulawan Elementary School</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>CITY OF EL SALVADOR</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="H18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>NEW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>6836370.06</v>
       </c>
-      <c r="L18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5" t="n">
         <v>6270286.1</v>
       </c>
-      <c r="N18" s="5" t="inlineStr">
+      <c r="O18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="6" t="n">
+      <c r="P18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="6" t="n">
         <v>45003</v>
       </c>
-      <c r="Q18" s="6" t="n">
+      <c r="R18" s="6" t="n">
         <v>45103</v>
       </c>
-      <c r="R18" s="5" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>2022-04-0068</t>
         </is>
       </c>
-      <c r="S18" s="5" t="inlineStr"/>
-      <c r="T18" s="6" t="n">
+      <c r="T18" s="5" t="inlineStr"/>
+      <c r="U18" s="6" t="n">
         <v>44680</v>
       </c>
-      <c r="U18" s="6" t="n">
+      <c r="V18" s="6" t="n">
         <v>44692</v>
       </c>
-      <c r="V18" s="6" t="n">
+      <c r="W18" s="6" t="n">
         <v>44704</v>
       </c>
-      <c r="W18" s="6" t="n">
+      <c r="X18" s="6" t="n">
         <v>44829</v>
       </c>
-      <c r="X18" s="6" t="n">
+      <c r="Y18" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="Y18" s="5" t="inlineStr">
+      <c r="Z18" s="5" t="inlineStr">
         <is>
           <t>AbrahamBM Construction</t>
         </is>
       </c>
-      <c r="Z18" s="5" t="inlineStr"/>
-      <c r="AA18" s="7" t="n"/>
+      <c r="AA18" s="5" t="inlineStr"/>
+      <c r="AB18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>2571</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Gingoog City</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>501023</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Civoleg Integrated School - Elem</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>GINGOOG CITY</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>1500000</v>
       </c>
-      <c r="L19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr">
+      <c r="M19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="n">
+      <c r="P19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="6" t="n">
         <v>44924</v>
       </c>
-      <c r="Q19" s="5" t="inlineStr"/>
-      <c r="R19" s="5" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr"/>
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 004</t>
         </is>
       </c>
-      <c r="S19" s="5" t="inlineStr">
+      <c r="T19" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 2</t>
         </is>
       </c>
-      <c r="T19" s="6" t="n">
+      <c r="U19" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U19" s="6" t="n">
+      <c r="V19" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V19" s="6" t="n">
+      <c r="W19" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W19" s="6" t="n">
+      <c r="X19" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X19" s="6" t="n">
+      <c r="Y19" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y19" s="5" t="inlineStr">
+      <c r="Z19" s="5" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z19" s="5" t="inlineStr"/>
-      <c r="AA19" s="7" t="n"/>
+      <c r="AA19" s="5" t="inlineStr"/>
+      <c r="AB19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>2572</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Gingoog City</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>128065</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Dona J. Pelaez Reyes CS</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>GINGOOG CITY</t>
         </is>
       </c>
-      <c r="G20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="J20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>1000000</v>
       </c>
-      <c r="L20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr">
+      <c r="M20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5" t="inlineStr"/>
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="6" t="n">
+      <c r="P20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="6" t="n">
         <v>44924</v>
       </c>
-      <c r="Q20" s="5" t="inlineStr"/>
-      <c r="R20" s="5" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr"/>
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 043</t>
         </is>
       </c>
-      <c r="S20" s="5" t="inlineStr">
+      <c r="T20" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin -  LOT 2</t>
         </is>
       </c>
-      <c r="T20" s="6" t="n">
+      <c r="U20" s="6" t="n">
         <v>44746</v>
       </c>
-      <c r="U20" s="6" t="n">
+      <c r="V20" s="6" t="n">
         <v>44755</v>
       </c>
-      <c r="V20" s="6" t="n">
+      <c r="W20" s="6" t="n">
         <v>44767</v>
       </c>
-      <c r="W20" s="6" t="n">
+      <c r="X20" s="6" t="n">
         <v>44781</v>
       </c>
-      <c r="X20" s="6" t="n">
+      <c r="Y20" s="6" t="n">
         <v>44823</v>
       </c>
-      <c r="Y20" s="5" t="inlineStr">
+      <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z20" s="5" t="inlineStr"/>
-      <c r="AA20" s="7" t="n"/>
+      <c r="AA20" s="5" t="inlineStr"/>
+      <c r="AB20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>2759</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Camiguin</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>126897</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Mahinog Central School</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>MAHINOG</t>
         </is>
       </c>
-      <c r="G21" s="5" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H21" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>Replacement</t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="L21" s="5" t="n">
         <v>6333807.9</v>
       </c>
-      <c r="L21" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5" t="n">
         <v>6316664.91</v>
       </c>
-      <c r="N21" s="5" t="inlineStr">
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="6" t="n">
+      <c r="P21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="Q21" s="5" t="inlineStr"/>
-      <c r="R21" s="5" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr"/>
+      <c r="S21" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - R X - Camiguin - 010</t>
         </is>
       </c>
-      <c r="S21" s="5" t="inlineStr">
+      <c r="T21" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 BATCH 2</t>
         </is>
       </c>
-      <c r="T21" s="6" t="n">
+      <c r="U21" s="6" t="n">
         <v>44999</v>
       </c>
-      <c r="U21" s="6" t="n">
+      <c r="V21" s="6" t="n">
         <v>45007</v>
       </c>
-      <c r="V21" s="6" t="n">
+      <c r="W21" s="6" t="n">
         <v>44991</v>
       </c>
-      <c r="W21" s="6" t="n">
+      <c r="X21" s="6" t="n">
         <v>45012</v>
       </c>
-      <c r="X21" s="6" t="n">
+      <c r="Y21" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="Y21" s="5" t="inlineStr">
+      <c r="Z21" s="5" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z21" s="5" t="inlineStr"/>
-      <c r="AA21" s="7" t="n"/>
+      <c r="AA21" s="5" t="inlineStr"/>
+      <c r="AB21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>3053</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>127244</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Aloran Central School</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>ALORAN</t>
         </is>
       </c>
-      <c r="G22" s="5" t="inlineStr">
+      <c r="H22" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>1181156.34</v>
       </c>
-      <c r="L22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5" t="n">
         <v>1169675.6</v>
       </c>
-      <c r="N22" s="5" t="inlineStr">
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="6" t="n">
+      <c r="P22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="6" t="n">
         <v>45305</v>
       </c>
-      <c r="Q22" s="6" t="n">
+      <c r="R22" s="6" t="n">
         <v>45322</v>
       </c>
-      <c r="R22" s="5" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S22" s="5" t="inlineStr">
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>010-2023</t>
         </is>
       </c>
-      <c r="T22" s="6" t="n">
+      <c r="U22" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U22" s="6" t="n">
+      <c r="V22" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V22" s="6" t="n">
+      <c r="W22" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W22" s="6" t="n">
+      <c r="X22" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X22" s="6" t="n">
+      <c r="Y22" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="Y22" s="5" t="inlineStr">
+      <c r="Z22" s="5" t="inlineStr">
         <is>
           <t>3R'S</t>
         </is>
       </c>
-      <c r="Z22" s="5" t="inlineStr">
+      <c r="AA22" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA22" s="7" t="n"/>
+      <c r="AB22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>3054</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>304024</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Aloran Trade HS</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>ALORAN</t>
         </is>
       </c>
-      <c r="G23" s="5" t="inlineStr">
+      <c r="H23" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="L23" s="5" t="n">
         <v>2631921.7</v>
       </c>
-      <c r="L23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="5" t="n">
         <v>2605810.49</v>
       </c>
-      <c r="N23" s="5" t="inlineStr">
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6" t="n">
+      <c r="P23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="6" t="n">
         <v>45402</v>
       </c>
-      <c r="Q23" s="6" t="n">
+      <c r="R23" s="6" t="n">
         <v>45322</v>
       </c>
-      <c r="R23" s="5" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S23" s="5" t="inlineStr">
+      <c r="T23" s="5" t="inlineStr">
         <is>
           <t>010-2023</t>
         </is>
       </c>
-      <c r="T23" s="6" t="n">
+      <c r="U23" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U23" s="6" t="n">
+      <c r="V23" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V23" s="6" t="n">
+      <c r="W23" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W23" s="6" t="n">
+      <c r="X23" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X23" s="6" t="n">
+      <c r="Y23" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="Y23" s="5" t="inlineStr">
+      <c r="Z23" s="5" t="inlineStr">
         <is>
           <t>3R'S</t>
         </is>
       </c>
-      <c r="Z23" s="5" t="inlineStr">
+      <c r="AA23" s="5" t="inlineStr">
         <is>
           <t>Ongoing - With Variation Order</t>
         </is>
       </c>
-      <c r="AA23" s="7" t="n"/>
+      <c r="AB23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>127252</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Lobogon ES</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>ALORAN</t>
         </is>
       </c>
-      <c r="G24" s="5" t="inlineStr">
+      <c r="H24" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H24" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>2UNITS 2STY6CL</t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>49200000</v>
       </c>
-      <c r="L24" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5" t="n">
         <v>48462000</v>
       </c>
-      <c r="N24" s="5" t="inlineStr">
+      <c r="O24" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="6" t="n">
+      <c r="P24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="6" t="n">
         <v>45305</v>
       </c>
-      <c r="Q24" s="5" t="inlineStr"/>
-      <c r="R24" s="5" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr"/>
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S24" s="5" t="inlineStr">
+      <c r="T24" s="5" t="inlineStr">
         <is>
           <t>011-2023</t>
         </is>
       </c>
-      <c r="T24" s="6" t="n">
+      <c r="U24" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U24" s="6" t="n">
+      <c r="V24" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V24" s="6" t="n">
+      <c r="W24" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W24" s="6" t="n">
+      <c r="X24" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X24" s="6" t="n">
+      <c r="Y24" s="6" t="n">
         <v>45216</v>
       </c>
-      <c r="Y24" s="5" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>HSO</t>
         </is>
       </c>
-      <c r="Z24" s="5" t="inlineStr">
+      <c r="AA24" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA24" s="7" t="n"/>
+      <c r="AB24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>3056</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>201016</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Palayan PS</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>ALORAN</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
+      <c r="H25" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="L25" s="5" t="n">
         <v>550000</v>
       </c>
-      <c r="L25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="5" t="n">
         <v>544594.41</v>
       </c>
-      <c r="N25" s="5" t="inlineStr">
+      <c r="O25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="6" t="n">
+      <c r="P25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="6" t="n">
         <v>45305</v>
       </c>
-      <c r="Q25" s="6" t="n">
+      <c r="R25" s="6" t="n">
         <v>45322</v>
       </c>
-      <c r="R25" s="5" t="inlineStr">
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S25" s="5" t="inlineStr">
+      <c r="T25" s="5" t="inlineStr">
         <is>
           <t>010-2023</t>
         </is>
       </c>
-      <c r="T25" s="6" t="n">
+      <c r="U25" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U25" s="6" t="n">
+      <c r="V25" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V25" s="6" t="n">
+      <c r="W25" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W25" s="6" t="n">
+      <c r="X25" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X25" s="6" t="n">
+      <c r="Y25" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="Y25" s="5" t="inlineStr">
+      <c r="Z25" s="5" t="inlineStr">
         <is>
           <t>3R'S</t>
         </is>
       </c>
-      <c r="Z25" s="5" t="inlineStr">
+      <c r="AA25" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA25" s="7" t="n"/>
+      <c r="AB25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>3057</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>127507</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Usocan Elementary School</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>PLARIDEL</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="L26" s="5" t="n">
         <v>3415705.95</v>
       </c>
-      <c r="L26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="5" t="n">
         <v>3392720.89</v>
       </c>
-      <c r="N26" s="5" t="inlineStr">
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="6" t="n">
+      <c r="P26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="6" t="n">
         <v>45369</v>
       </c>
-      <c r="Q26" s="6" t="n">
+      <c r="R26" s="6" t="n">
         <v>45380</v>
       </c>
-      <c r="R26" s="5" t="inlineStr">
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S26" s="5" t="inlineStr">
+      <c r="T26" s="5" t="inlineStr">
         <is>
           <t>021-2023</t>
         </is>
       </c>
-      <c r="T26" s="6" t="n">
+      <c r="U26" s="6" t="n">
         <v>45178</v>
       </c>
-      <c r="U26" s="6" t="n">
+      <c r="V26" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V26" s="6" t="n">
+      <c r="W26" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W26" s="6" t="n">
+      <c r="X26" s="6" t="n">
         <v>45211</v>
       </c>
-      <c r="X26" s="6" t="n">
+      <c r="Y26" s="6" t="n">
         <v>45273</v>
       </c>
-      <c r="Y26" s="5" t="inlineStr">
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>RJLG Construction and Supplies</t>
         </is>
       </c>
-      <c r="Z26" s="5" t="inlineStr">
+      <c r="AA26" s="5" t="inlineStr">
         <is>
           <t>Ongoing - with issued Site Instruction</t>
         </is>
       </c>
-      <c r="AA26" s="7" t="n"/>
+      <c r="AB26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>3058</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>127334</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Bitoon Elementary School</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>CLARIN</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>1STY4CL</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="L27" s="5" t="n">
         <v>10094200</v>
       </c>
-      <c r="L27" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5" t="n">
         <v>9791374</v>
       </c>
-      <c r="N27" s="5" t="inlineStr">
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O27" s="5" t="n">
+      <c r="P27" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="P27" s="6" t="n">
+      <c r="Q27" s="6" t="n">
         <v>45383</v>
       </c>
-      <c r="Q27" s="5" t="inlineStr"/>
-      <c r="R27" s="5" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr"/>
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S27" s="5" t="inlineStr">
+      <c r="T27" s="5" t="inlineStr">
         <is>
           <t>013-2023</t>
         </is>
       </c>
-      <c r="T27" s="6" t="n">
+      <c r="U27" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U27" s="6" t="n">
+      <c r="V27" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V27" s="6" t="n">
+      <c r="W27" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W27" s="6" t="n">
+      <c r="X27" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X27" s="6" t="n">
+      <c r="Y27" s="6" t="n">
         <v>45216</v>
       </c>
-      <c r="Y27" s="5" t="inlineStr">
+      <c r="Z27" s="5" t="inlineStr">
         <is>
           <t>SGM</t>
         </is>
       </c>
-      <c r="Z27" s="5" t="inlineStr">
+      <c r="AA27" s="5" t="inlineStr">
         <is>
           <t>Ongoing - with liquidated damages</t>
         </is>
       </c>
-      <c r="AA27" s="7" t="n"/>
+      <c r="AB27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>3059</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>127538</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Cagay-Anon ES</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>SINACABAN</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H28" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>2STY4CL</t>
         </is>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="L28" s="5" t="n">
         <v>16800000</v>
       </c>
-      <c r="L28" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5" t="n">
         <v>16346376.58</v>
       </c>
-      <c r="N28" s="5" t="inlineStr">
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O28" s="5" t="n">
+      <c r="P28" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="P28" s="6" t="n">
+      <c r="Q28" s="6" t="n">
         <v>45375</v>
       </c>
-      <c r="Q28" s="5" t="inlineStr"/>
-      <c r="R28" s="5" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr"/>
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S28" s="5" t="inlineStr">
+      <c r="T28" s="5" t="inlineStr">
         <is>
           <t>014-2023</t>
         </is>
       </c>
-      <c r="T28" s="6" t="n">
+      <c r="U28" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U28" s="6" t="n">
+      <c r="V28" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V28" s="6" t="n">
+      <c r="W28" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W28" s="6" t="n">
+      <c r="X28" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X28" s="6" t="n">
+      <c r="Y28" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="Y28" s="5" t="inlineStr">
+      <c r="Z28" s="5" t="inlineStr">
         <is>
           <t>3R'S</t>
         </is>
       </c>
-      <c r="Z28" s="5" t="inlineStr">
+      <c r="AA28" s="5" t="inlineStr">
         <is>
           <t>Ongoing-With Suspension Order due to change in foundation to suit actual field condition - Resumption on April 1, 2024</t>
         </is>
       </c>
-      <c r="AA28" s="7" t="n"/>
+      <c r="AB28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>3060</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>127552</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>San Vicente ES</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>SINACABAN</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H29" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="L29" s="5" t="n">
         <v>1786838.15</v>
       </c>
-      <c r="L29" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="5" t="n">
         <v>1773076.95</v>
       </c>
-      <c r="N29" s="5" t="inlineStr">
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="6" t="n">
+      <c r="P29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="6" t="n">
         <v>45369</v>
       </c>
-      <c r="Q29" s="6" t="n">
+      <c r="R29" s="6" t="n">
         <v>45377</v>
       </c>
-      <c r="R29" s="5" t="inlineStr">
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S29" s="5" t="inlineStr">
+      <c r="T29" s="5" t="inlineStr">
         <is>
           <t>022-2023</t>
         </is>
       </c>
-      <c r="T29" s="6" t="n">
+      <c r="U29" s="6" t="n">
         <v>45178</v>
       </c>
-      <c r="U29" s="6" t="n">
+      <c r="V29" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V29" s="6" t="n">
+      <c r="W29" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W29" s="6" t="n">
+      <c r="X29" s="6" t="n">
         <v>45211</v>
       </c>
-      <c r="X29" s="5" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>October 27, 2027</t>
         </is>
       </c>
-      <c r="Y29" s="5" t="inlineStr">
+      <c r="Z29" s="5" t="inlineStr">
         <is>
           <t>RJLG Construction and Supplies</t>
         </is>
       </c>
-      <c r="Z29" s="5" t="inlineStr">
+      <c r="AA29" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA29" s="7" t="n"/>
+      <c r="AB29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>3061</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>127575</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Ozamiz Elementary School</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>TUDELA</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H30" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>2STY6CL</t>
         </is>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="L30" s="5" t="n">
         <v>24600000</v>
       </c>
-      <c r="L30" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5" t="n">
         <v>23861999.87</v>
       </c>
-      <c r="N30" s="5" t="inlineStr">
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O30" s="5" t="n">
+      <c r="P30" s="5" t="n">
         <v>0.83</v>
       </c>
-      <c r="P30" s="6" t="n">
+      <c r="Q30" s="6" t="n">
         <v>45403</v>
       </c>
-      <c r="Q30" s="5" t="inlineStr"/>
-      <c r="R30" s="5" t="inlineStr">
+      <c r="R30" s="5" t="inlineStr"/>
+      <c r="S30" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S30" s="5" t="inlineStr">
+      <c r="T30" s="5" t="inlineStr">
         <is>
           <t>015-2023</t>
         </is>
       </c>
-      <c r="T30" s="6" t="n">
+      <c r="U30" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U30" s="6" t="n">
+      <c r="V30" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V30" s="6" t="n">
+      <c r="W30" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W30" s="6" t="n">
+      <c r="X30" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X30" s="6" t="n">
+      <c r="Y30" s="6" t="n">
         <v>45216</v>
       </c>
-      <c r="Y30" s="5" t="inlineStr">
+      <c r="Z30" s="5" t="inlineStr">
         <is>
           <t>Mindanao Rock</t>
         </is>
       </c>
-      <c r="Z30" s="5" t="inlineStr">
+      <c r="AA30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA30" s="7" t="n"/>
+      <c r="AB30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="5" t="n">
+        <v>3062</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="E31" s="5" t="n">
         <v>127582</v>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Tudela Central School</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>TUDELA</t>
         </is>
       </c>
-      <c r="G31" s="5" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H31" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="L31" s="5" t="n">
         <v>766473.74</v>
       </c>
-      <c r="L31" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="5" t="n">
         <v>758014.3</v>
       </c>
-      <c r="N31" s="5" t="inlineStr">
+      <c r="O31" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="6" t="n">
+      <c r="P31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="6" t="n">
         <v>45305</v>
       </c>
-      <c r="Q31" s="6" t="n">
+      <c r="R31" s="6" t="n">
         <v>45322</v>
       </c>
-      <c r="R31" s="5" t="inlineStr">
+      <c r="S31" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S31" s="5" t="inlineStr">
+      <c r="T31" s="5" t="inlineStr">
         <is>
           <t>018-2023</t>
         </is>
       </c>
-      <c r="T31" s="6" t="n">
+      <c r="U31" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U31" s="6" t="n">
+      <c r="V31" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V31" s="6" t="n">
+      <c r="W31" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W31" s="6" t="n">
+      <c r="X31" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X31" s="6" t="n">
+      <c r="Y31" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="Y31" s="5" t="inlineStr">
+      <c r="Z31" s="5" t="inlineStr">
         <is>
           <t>3R'S</t>
         </is>
       </c>
-      <c r="Z31" s="5" t="inlineStr">
+      <c r="AA31" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA31" s="7" t="n"/>
+      <c r="AB31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="5" t="n">
+        <v>3063</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>Misamis Occidental</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="E32" s="5" t="n">
         <v>304058</v>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>Tudela National Comprehensive High School</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>TUDELA</t>
         </is>
       </c>
-      <c r="G32" s="5" t="inlineStr">
+      <c r="H32" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H32" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="L32" s="5" t="n">
         <v>2173436.49</v>
       </c>
-      <c r="L32" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="5" t="n">
         <v>2151115.2</v>
       </c>
-      <c r="N32" s="5" t="inlineStr">
+      <c r="O32" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="6" t="n">
+      <c r="P32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="6" t="n">
         <v>45305</v>
       </c>
-      <c r="Q32" s="6" t="n">
+      <c r="R32" s="6" t="n">
         <v>45322</v>
       </c>
-      <c r="R32" s="5" t="inlineStr">
+      <c r="S32" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S32" s="5" t="inlineStr">
+      <c r="T32" s="5" t="inlineStr">
         <is>
           <t>018-2023</t>
         </is>
       </c>
-      <c r="T32" s="6" t="n">
+      <c r="U32" s="6" t="n">
         <v>45140</v>
       </c>
-      <c r="U32" s="6" t="n">
+      <c r="V32" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="V32" s="6" t="n">
+      <c r="W32" s="6" t="n">
         <v>45163</v>
       </c>
-      <c r="W32" s="6" t="n">
+      <c r="X32" s="6" t="n">
         <v>45175</v>
       </c>
-      <c r="X32" s="6" t="n">
+      <c r="Y32" s="6" t="n">
         <v>45208</v>
       </c>
-      <c r="Y32" s="5" t="inlineStr">
+      <c r="Z32" s="5" t="inlineStr">
         <is>
           <t>3R'S</t>
         </is>
       </c>
-      <c r="Z32" s="5" t="inlineStr">
+      <c r="AA32" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA32" s="7" t="n"/>
+      <c r="AB32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="5" t="n">
+        <v>3064</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="E33" s="5" t="n">
         <v>304089</v>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>Medina NCHS</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>MEDINA</t>
         </is>
       </c>
-      <c r="G33" s="5" t="inlineStr">
+      <c r="H33" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H33" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t>3STY15CL</t>
         </is>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="L33" s="5" t="n">
         <v>45000000</v>
       </c>
-      <c r="L33" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="5" t="n">
         <v>39598320.79</v>
       </c>
-      <c r="N33" s="5" t="inlineStr">
+      <c r="O33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="5" t="inlineStr">
+      <c r="P33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="5" t="inlineStr">
         <is>
           <t>September 30, 2024</t>
         </is>
       </c>
-      <c r="Q33" s="5" t="inlineStr"/>
-      <c r="R33" s="5" t="inlineStr">
+      <c r="R33" s="5" t="inlineStr"/>
+      <c r="S33" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S33" s="5" t="inlineStr">
+      <c r="T33" s="5" t="inlineStr">
         <is>
           <t>PB Const2023-002</t>
         </is>
       </c>
-      <c r="T33" s="5" t="inlineStr">
+      <c r="U33" s="5" t="inlineStr">
         <is>
           <t>June 3,2023</t>
         </is>
       </c>
-      <c r="U33" s="5" t="inlineStr">
+      <c r="V33" s="5" t="inlineStr">
         <is>
           <t>June 13,2023</t>
         </is>
       </c>
-      <c r="V33" s="5" t="inlineStr">
+      <c r="W33" s="5" t="inlineStr">
         <is>
           <t>June 27,2023</t>
         </is>
       </c>
-      <c r="W33" s="5" t="inlineStr">
+      <c r="X33" s="5" t="inlineStr">
         <is>
           <t>July 27,2023</t>
         </is>
       </c>
-      <c r="X33" s="5" t="inlineStr">
+      <c r="Y33" s="5" t="inlineStr">
         <is>
           <t>October 27, 2023</t>
         </is>
       </c>
-      <c r="Y33" s="5" t="inlineStr">
+      <c r="Z33" s="5" t="inlineStr">
         <is>
           <t>Junjing Construction and Gen Mer.</t>
         </is>
       </c>
-      <c r="Z33" s="5" t="inlineStr">
+      <c r="AA33" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA33" s="7" t="n"/>
+      <c r="AB33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A34" s="5" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>Misamis Oriental</t>
         </is>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="E34" s="5" t="n">
         <v>304081</v>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>Lourdes Alubijid NHS</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>ALUBIJID</t>
         </is>
       </c>
-      <c r="G34" s="5" t="inlineStr">
+      <c r="H34" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H34" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="5" t="inlineStr">
+      <c r="K34" s="5" t="inlineStr">
         <is>
           <t>Structural Assessment &amp; Repair of 1CL TVL Bldg.</t>
         </is>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="L34" s="5" t="n">
         <v>1000000</v>
       </c>
-      <c r="L34" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="5" t="n">
         <v>835775.02</v>
       </c>
-      <c r="N34" s="5" t="inlineStr">
+      <c r="O34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="5" t="inlineStr">
+      <c r="P34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="5" t="inlineStr">
         <is>
           <t>March 1,2024</t>
         </is>
       </c>
-      <c r="Q34" s="5" t="inlineStr">
+      <c r="R34" s="5" t="inlineStr">
         <is>
           <t>February 25, 2024</t>
         </is>
       </c>
-      <c r="R34" s="5" t="inlineStr">
+      <c r="S34" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="S34" s="5" t="inlineStr">
+      <c r="T34" s="5" t="inlineStr">
         <is>
           <t>G2PB Repair 2023-001</t>
         </is>
       </c>
-      <c r="T34" s="5" t="inlineStr">
+      <c r="U34" s="5" t="inlineStr">
         <is>
           <t>October 10,2023</t>
         </is>
       </c>
-      <c r="U34" s="5" t="inlineStr">
+      <c r="V34" s="5" t="inlineStr">
         <is>
           <t>Oct 23,2023</t>
         </is>
       </c>
-      <c r="V34" s="5" t="inlineStr">
+      <c r="W34" s="5" t="inlineStr">
         <is>
           <t>Nov 6,2023</t>
         </is>
       </c>
-      <c r="W34" s="5" t="inlineStr">
+      <c r="X34" s="5" t="inlineStr">
         <is>
           <t>Nov 22, 2023</t>
         </is>
       </c>
-      <c r="X34" s="5" t="inlineStr">
+      <c r="Y34" s="5" t="inlineStr">
         <is>
           <t>Dec.19, 2023</t>
         </is>
       </c>
-      <c r="Y34" s="5" t="inlineStr">
+      <c r="Z34" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tri - FB </t>
         </is>
       </c>
-      <c r="Z34" s="5" t="inlineStr">
+      <c r="AA34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA34" s="7" t="n"/>
+      <c r="AB34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="5" t="n">
+        <v>3066</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>Oroquieta City</t>
         </is>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="E35" s="5" t="n">
         <v>127437</v>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Oroquieta City CES</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>OROQUIETA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G35" s="5" t="inlineStr">
+      <c r="H35" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H35" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J35" s="5" t="inlineStr">
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t>2STY8CL</t>
         </is>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="L35" s="5" t="n">
         <v>24871003.7</v>
       </c>
-      <c r="L35" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="5" t="n">
         <v>21907012.66</v>
       </c>
-      <c r="N35" s="5" t="inlineStr">
+      <c r="O35" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="5" t="inlineStr">
+      <c r="P35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="5" t="inlineStr">
         <is>
           <t>17‎ ‎July‎ ‎2024</t>
         </is>
       </c>
-      <c r="Q35" s="5" t="inlineStr"/>
-      <c r="R35" s="5" t="inlineStr">
+      <c r="R35" s="5" t="inlineStr"/>
+      <c r="S35" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023-DEPEDOROQ-1</t>
         </is>
       </c>
-      <c r="S35" s="5" t="inlineStr"/>
-      <c r="T35" s="6" t="n">
+      <c r="T35" s="5" t="inlineStr"/>
+      <c r="U35" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U35" s="6" t="n">
+      <c r="V35" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V35" s="6" t="n">
+      <c r="W35" s="6" t="n">
         <v>45068</v>
       </c>
-      <c r="W35" s="6" t="n">
+      <c r="X35" s="6" t="n">
         <v>45117</v>
       </c>
-      <c r="X35" s="6" t="n">
+      <c r="Y35" s="6" t="n">
         <v>45121</v>
       </c>
-      <c r="Y35" s="5" t="inlineStr">
+      <c r="Z35" s="5" t="inlineStr">
         <is>
           <t>G-Baron Construction</t>
         </is>
       </c>
-      <c r="Z35" s="5" t="inlineStr">
+      <c r="AA35" s="5" t="inlineStr">
         <is>
           <t>variance is subject for utilization</t>
         </is>
       </c>
-      <c r="AA35" s="7" t="n"/>
+      <c r="AB35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+      <c r="A36" s="5" t="n">
+        <v>3067</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t>Oroquieta City</t>
         </is>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="E36" s="5" t="n">
         <v>304049</v>
       </c>
-      <c r="E36" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>Rizal NHS</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>OROQUIETA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G36" s="5" t="inlineStr">
+      <c r="H36" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H36" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J36" s="5" t="inlineStr">
+      <c r="K36" s="5" t="inlineStr">
         <is>
           <t>2STY6CL</t>
         </is>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="L36" s="5" t="n">
         <v>18906773.84</v>
       </c>
-      <c r="L36" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" s="5" t="n">
         <v>16036677.23</v>
       </c>
-      <c r="N36" s="5" t="inlineStr">
+      <c r="O36" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="5" t="inlineStr">
+      <c r="P36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> ‎29‎ ‎December‎ ‎2023</t>
         </is>
       </c>
-      <c r="Q36" s="5" t="inlineStr"/>
-      <c r="R36" s="5" t="inlineStr">
+      <c r="R36" s="5" t="inlineStr"/>
+      <c r="S36" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023-DEPEDOROQ-3</t>
         </is>
       </c>
-      <c r="S36" s="5" t="inlineStr"/>
-      <c r="T36" s="6" t="n">
+      <c r="T36" s="5" t="inlineStr"/>
+      <c r="U36" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U36" s="6" t="n">
+      <c r="V36" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V36" s="6" t="n">
+      <c r="W36" s="6" t="n">
         <v>45069</v>
       </c>
-      <c r="W36" s="6" t="n">
+      <c r="X36" s="6" t="n">
         <v>45103</v>
       </c>
-      <c r="X36" s="6" t="n">
+      <c r="Y36" s="6" t="n">
         <v>45124</v>
       </c>
-      <c r="Y36" s="5" t="inlineStr">
+      <c r="Z36" s="5" t="inlineStr">
         <is>
           <t>RJLG Construction</t>
         </is>
       </c>
-      <c r="Z36" s="5" t="inlineStr">
+      <c r="AA36" s="5" t="inlineStr">
         <is>
           <t>Completed - Subject for turn-over</t>
         </is>
       </c>
-      <c r="AA36" s="7" t="n"/>
+      <c r="AB36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="A37" s="5" t="n">
+        <v>3068</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>Oroquieta City</t>
         </is>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="E37" s="5" t="n">
         <v>127474</v>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>Vicente Flores MES</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>OROQUIETA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G37" s="5" t="inlineStr">
+      <c r="H37" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H37" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>2STY6CL</t>
         </is>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="L37" s="5" t="n">
         <v>21824913.64</v>
       </c>
-      <c r="L37" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" s="5" t="n">
         <v>18973207.53</v>
       </c>
-      <c r="N37" s="5" t="inlineStr">
+      <c r="O37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" s="5" t="inlineStr">
+      <c r="P37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> ‎13‎ ‎January‎ ‎2024</t>
         </is>
       </c>
-      <c r="Q37" s="5" t="inlineStr"/>
-      <c r="R37" s="5" t="inlineStr">
+      <c r="R37" s="5" t="inlineStr"/>
+      <c r="S37" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023-DEPEDOROQ-2</t>
         </is>
       </c>
-      <c r="S37" s="5" t="inlineStr"/>
-      <c r="T37" s="6" t="n">
+      <c r="T37" s="5" t="inlineStr"/>
+      <c r="U37" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U37" s="6" t="n">
+      <c r="V37" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V37" s="6" t="n">
+      <c r="W37" s="6" t="n">
         <v>45068</v>
       </c>
-      <c r="W37" s="6" t="n">
+      <c r="X37" s="6" t="n">
         <v>45103</v>
       </c>
-      <c r="X37" s="6" t="n">
+      <c r="Y37" s="6" t="n">
         <v>45124</v>
       </c>
-      <c r="Y37" s="5" t="inlineStr">
+      <c r="Z37" s="5" t="inlineStr">
         <is>
           <t>RJLG Construction</t>
         </is>
       </c>
-      <c r="Z37" s="5" t="inlineStr">
+      <c r="AA37" s="5" t="inlineStr">
         <is>
           <t>variance is subject for utilization</t>
         </is>
       </c>
-      <c r="AA37" s="7" t="n"/>
+      <c r="AB37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
+      <c r="A38" s="5" t="n">
+        <v>3069</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>Oroquieta City</t>
         </is>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="E38" s="5" t="n">
         <v>127474</v>
       </c>
-      <c r="E38" s="5" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>Vicente Flores MES</t>
         </is>
       </c>
-      <c r="F38" s="5" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>OROQUIETA CITY (Capital)</t>
         </is>
       </c>
-      <c r="G38" s="5" t="inlineStr">
+      <c r="H38" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H38" s="5" t="inlineStr"/>
-      <c r="I38" s="5" t="n">
+      <c r="I38" s="5" t="inlineStr"/>
+      <c r="J38" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J38" s="5" t="inlineStr">
+      <c r="K38" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="L38" s="5" t="n">
         <v>4793783.14</v>
       </c>
-      <c r="L38" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="5" t="n">
         <v>3817916.63</v>
       </c>
-      <c r="N38" s="5" t="inlineStr">
+      <c r="O38" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O38" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="5" t="inlineStr">
+      <c r="P38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="5" t="inlineStr">
         <is>
           <t>‎14‎ ‎December‎ ‎2023</t>
         </is>
       </c>
-      <c r="Q38" s="5" t="inlineStr"/>
-      <c r="R38" s="5" t="inlineStr">
+      <c r="R38" s="5" t="inlineStr"/>
+      <c r="S38" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023-DEPEDOROQ-4</t>
         </is>
       </c>
-      <c r="S38" s="5" t="inlineStr"/>
-      <c r="T38" s="6" t="n">
+      <c r="T38" s="5" t="inlineStr"/>
+      <c r="U38" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="U38" s="6" t="n">
+      <c r="V38" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="V38" s="6" t="n">
+      <c r="W38" s="6" t="n">
         <v>45069</v>
       </c>
-      <c r="W38" s="6" t="n">
+      <c r="X38" s="6" t="n">
         <v>45103</v>
       </c>
-      <c r="X38" s="6" t="n">
+      <c r="Y38" s="6" t="n">
         <v>45124</v>
       </c>
-      <c r="Y38" s="5" t="inlineStr">
+      <c r="Z38" s="5" t="inlineStr">
         <is>
           <t>RJLG Construction</t>
         </is>
       </c>
-      <c r="Z38" s="5" t="inlineStr">
+      <c r="AA38" s="5" t="inlineStr">
         <is>
           <t>variance is subject for utilization</t>
         </is>
       </c>
-      <c r="AA38" s="7" t="n"/>
+      <c r="AB38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
+      <c r="A39" s="5" t="n">
+        <v>3244</v>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Region X</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>Bukidnon</t>
         </is>
       </c>
-      <c r="D39" s="5" t="n">
+      <c r="E39" s="5" t="n">
         <v>126484</v>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>Sagasaan ES</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>KITAOTAO</t>
         </is>
       </c>
-      <c r="G39" s="5" t="inlineStr">
+      <c r="H39" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H39" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J39" s="5" t="inlineStr">
+      <c r="K39" s="5" t="inlineStr">
         <is>
           <t>1STY2CL</t>
         </is>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="L39" s="5" t="n">
         <v>6599650.8</v>
       </c>
-      <c r="L39" s="5" t="inlineStr">
+      <c r="M39" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M39" s="5" t="inlineStr"/>
-      <c r="N39" s="5" t="inlineStr">
+      <c r="N39" s="5" t="inlineStr"/>
+      <c r="O39" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O39" s="5" t="n">
+      <c r="P39" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="P39" s="5" t="inlineStr"/>
       <c r="Q39" s="5" t="inlineStr"/>
       <c r="R39" s="5" t="inlineStr"/>
       <c r="S39" s="5" t="inlineStr"/>
@@ -4419,11 +4538,12 @@
       <c r="X39" s="5" t="inlineStr"/>
       <c r="Y39" s="5" t="inlineStr"/>
       <c r="Z39" s="5" t="inlineStr"/>
-      <c r="AA39" s="7" t="n"/>
+      <c r="AA39" s="5" t="inlineStr"/>
+      <c r="AB39" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA39" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB39" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
